--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_12_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_12_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1366627.418278022</v>
+        <v>1365873.241048525</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1296370.265119875</v>
+        <v>1296370.265119874</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>6.602605461619505</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.602605461619507</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="Y8" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,70 +1212,70 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="D9" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="G9" t="n">
+      <c r="U9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1315,34 +1315,34 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>251.4065958057407</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>233.9456459132677</v>
       </c>
       <c r="D11" t="n">
         <v>223.3557957629431</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>283.4782531316254</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>59.97885544792413</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>66.36200082252515</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>89.59194205983398</v>
       </c>
       <c r="U11" t="n">
         <v>119.978627968035</v>
@@ -1430,13 +1430,13 @@
         <v>196.425012612395</v>
       </c>
       <c r="W11" t="n">
-        <v>28.54409311606484</v>
+        <v>217.9137228596731</v>
       </c>
       <c r="X11" t="n">
-        <v>238.4038548207292</v>
+        <v>72.45784267614188</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.9106927983137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,25 +1449,25 @@
         <v>35.20593779212746</v>
       </c>
       <c r="C12" t="n">
-        <v>90.67343856177054</v>
+        <v>41.38125313057586</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>16.11781970689887</v>
       </c>
       <c r="E12" t="n">
         <v>26.31783459766106</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>13.741966535644</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0774710972763</v>
+        <v>113.6178776255888</v>
       </c>
       <c r="H12" t="n">
-        <v>109.665999336552</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.23671347604525</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,22 +1497,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>35.41423625823919</v>
+        <v>166.7414821159791</v>
       </c>
       <c r="T12" t="n">
-        <v>199.0923763501127</v>
+        <v>67.76513049237282</v>
       </c>
       <c r="U12" t="n">
-        <v>94.59663319258136</v>
+        <v>225.9238790503212</v>
       </c>
       <c r="V12" t="n">
-        <v>101.4733412916854</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>120.3677373031797</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>74.44573934573759</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>74.35544991956448</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.4065958057406</v>
+        <v>251.4065958057407</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>223.3557957629431</v>
       </c>
       <c r="E14" t="n">
-        <v>250.6031242145218</v>
+        <v>250.6031242145219</v>
       </c>
       <c r="F14" t="n">
-        <v>66.29380943917624</v>
+        <v>18.80339443624746</v>
       </c>
       <c r="G14" t="n">
-        <v>283.4782531316253</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>59.97885544792408</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.36200082252509</v>
+        <v>66.36200082252515</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>89.591942059834</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>119.978627968035</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>196.425012612395</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>238.4038548207291</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.9106927983136</v>
+        <v>254.9106927983137</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35.2059377921274</v>
+        <v>35.20593779212746</v>
       </c>
       <c r="C15" t="n">
-        <v>41.3812531305758</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>16.11781970689881</v>
+        <v>16.11781970689887</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>13.741966535644</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0774710972763</v>
+        <v>29.97823693507718</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.23671347604525</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>83.63964069051124</v>
       </c>
       <c r="S15" t="n">
-        <v>166.7414821159791</v>
+        <v>35.41423625823919</v>
       </c>
       <c r="T15" t="n">
-        <v>67.76513049237276</v>
+        <v>199.0923763501127</v>
       </c>
       <c r="U15" t="n">
-        <v>94.59663319258131</v>
+        <v>94.59663319258136</v>
       </c>
       <c r="V15" t="n">
-        <v>101.4733412916853</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>120.3677373031797</v>
       </c>
       <c r="X15" t="n">
-        <v>149.7642834229739</v>
+        <v>74.44573934573759</v>
       </c>
       <c r="Y15" t="n">
-        <v>74.35544991956442</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.50473432419736</v>
+        <v>48.50473432419741</v>
       </c>
       <c r="C16" t="n">
-        <v>35.91957524088789</v>
+        <v>35.91957524088795</v>
       </c>
       <c r="D16" t="n">
-        <v>17.28822716047242</v>
+        <v>17.28822716047247</v>
       </c>
       <c r="E16" t="n">
-        <v>15.10671678882923</v>
+        <v>15.10671678882929</v>
       </c>
       <c r="F16" t="n">
-        <v>14.09380216519131</v>
+        <v>14.09380216519136</v>
       </c>
       <c r="G16" t="n">
-        <v>36.44068941610607</v>
+        <v>36.44068941610613</v>
       </c>
       <c r="H16" t="n">
-        <v>28.9168619701427</v>
+        <v>28.91686197014275</v>
       </c>
       <c r="I16" t="n">
-        <v>17.41568514316421</v>
+        <v>17.41568514316426</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.93727240584202</v>
+        <v>35.93727240584207</v>
       </c>
       <c r="S16" t="n">
-        <v>88.80230208648115</v>
+        <v>88.80230208648121</v>
       </c>
       <c r="T16" t="n">
-        <v>95.6653370271962</v>
+        <v>95.66533702719626</v>
       </c>
       <c r="U16" t="n">
         <v>154.9796174577721</v>
@@ -1828,10 +1828,10 @@
         <v>155.1957524788511</v>
       </c>
       <c r="X16" t="n">
-        <v>94.38240953129721</v>
+        <v>94.38240953129727</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.25740749435485</v>
+        <v>87.25740749435491</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>144.9409165143535</v>
+        <v>144.9409165143534</v>
       </c>
       <c r="C17" t="n">
-        <v>127.4799666218805</v>
+        <v>127.4799666218804</v>
       </c>
       <c r="D17" t="n">
-        <v>116.8901164715559</v>
+        <v>116.8901164715558</v>
       </c>
       <c r="E17" t="n">
-        <v>144.1374449231347</v>
+        <v>144.1374449231346</v>
       </c>
       <c r="F17" t="n">
-        <v>169.0831205925844</v>
+        <v>169.083120592584</v>
       </c>
       <c r="G17" t="n">
-        <v>177.0125738402381</v>
+        <v>177.012573840238</v>
       </c>
       <c r="H17" t="n">
-        <v>96.58953291459966</v>
+        <v>96.58953291459957</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.51294867664782</v>
+        <v>13.51294867664774</v>
       </c>
       <c r="V17" t="n">
-        <v>89.95933332100782</v>
+        <v>89.95933332100773</v>
       </c>
       <c r="W17" t="n">
-        <v>111.4480435682859</v>
+        <v>111.4480435682858</v>
       </c>
       <c r="X17" t="n">
         <v>131.9381755293419</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.4450135069265</v>
+        <v>148.4450135069264</v>
       </c>
     </row>
     <row r="18">
@@ -1923,25 +1923,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>51.07020950070558</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0774710972763</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>31.44038664287419</v>
       </c>
       <c r="I18" t="n">
-        <v>80.23671347604525</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.63964069051124</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.7414821159791</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.0923763501127</v>
       </c>
       <c r="U18" t="n">
         <v>225.9238790503212</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>13.90205801179243</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>33.62757345920319</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>180.0615361057726</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.51393816638492</v>
+        <v>48.51393816638484</v>
       </c>
       <c r="V19" t="n">
-        <v>14.34471817470092</v>
+        <v>14.34471817470083</v>
       </c>
       <c r="W19" t="n">
-        <v>48.73007318746392</v>
+        <v>48.73007318746383</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>144.9409165143537</v>
+        <v>144.9409165143534</v>
       </c>
       <c r="C20" t="n">
         <v>127.4799666218804</v>
@@ -2093,10 +2093,10 @@
         <v>169.0831205925843</v>
       </c>
       <c r="G20" t="n">
-        <v>177.0125738402381</v>
+        <v>177.012573840238</v>
       </c>
       <c r="H20" t="n">
-        <v>96.5895329145996</v>
+        <v>96.58953291459957</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.51294867664777</v>
+        <v>13.51294867664774</v>
       </c>
       <c r="V20" t="n">
-        <v>89.95933332100776</v>
+        <v>89.95933332100773</v>
       </c>
       <c r="W20" t="n">
-        <v>111.4480435682859</v>
+        <v>111.4480435682858</v>
       </c>
       <c r="X20" t="n">
         <v>131.9381755293419</v>
@@ -2163,22 +2163,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0774710972763</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.665999336552</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.23671347604525</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.63964069051124</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.0923763501127</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9238790503212</v>
+        <v>20.72825834392711</v>
       </c>
       <c r="V21" t="n">
-        <v>223.4352884679905</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>13.90205801179246</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.64048808284131</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.51393816638487</v>
+        <v>48.51393816638484</v>
       </c>
       <c r="V22" t="n">
-        <v>14.34471817470086</v>
+        <v>14.34471817470083</v>
       </c>
       <c r="W22" t="n">
-        <v>48.73007318746386</v>
+        <v>48.73007318746383</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.0615361057727</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>71.53851810405824</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>4.744479580880089</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.23671347604525</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.63964069051124</v>
       </c>
       <c r="S24" t="n">
         <v>166.7414821159791</v>
@@ -2451,16 +2451,16 @@
         <v>199.0923763501127</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9238790503212</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>13.90205801179246</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>112.5763934301507</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>67.48514267562186</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>180.0615361057725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2606,7 +2606,7 @@
         <v>47.41351107129586</v>
       </c>
       <c r="T26" t="n">
-        <v>70.64345230860471</v>
+        <v>70.64345230860469</v>
       </c>
       <c r="U26" t="n">
         <v>101.0301382168057</v>
@@ -2637,19 +2637,19 @@
         <v>22.43276337934657</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>7.369344846431773</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>2.624674827537004</v>
       </c>
       <c r="G27" t="n">
         <v>137.0774710972763</v>
       </c>
       <c r="H27" t="n">
-        <v>109.665999336552</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>166.7414821159791</v>
       </c>
       <c r="T27" t="n">
-        <v>100.0882451010139</v>
+        <v>199.0923763501127</v>
       </c>
       <c r="U27" t="n">
-        <v>75.64814344135208</v>
+        <v>225.9238790503212</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2697,10 +2697,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>55.4972495945083</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>55.40696016833519</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>21.7127929127654</v>
       </c>
       <c r="C30" t="n">
-        <v>22.43276337934662</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>7.369344846431829</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.0774710972763</v>
       </c>
       <c r="H30" t="n">
-        <v>109.665999336552</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.63964069051124</v>
       </c>
       <c r="S30" t="n">
-        <v>151.376991557391</v>
+        <v>16.46574650700996</v>
       </c>
       <c r="T30" t="n">
         <v>199.0923763501127</v>
       </c>
       <c r="U30" t="n">
-        <v>75.64814344135213</v>
+        <v>225.9238790503212</v>
       </c>
       <c r="V30" t="n">
-        <v>82.52485154045615</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>55.49724959450836</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3047,7 +3047,7 @@
         <v>180.1475982048419</v>
       </c>
       <c r="I32" t="n">
-        <v>37.07124144677914</v>
+        <v>37.07124144677917</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,19 +3077,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.45438682138015</v>
+        <v>43.45438682138018</v>
       </c>
       <c r="T32" t="n">
-        <v>66.684328058689</v>
+        <v>66.68432805868903</v>
       </c>
       <c r="U32" t="n">
-        <v>97.07101396689004</v>
+        <v>97.07101396689006</v>
       </c>
       <c r="V32" t="n">
-        <v>173.51739861125</v>
+        <v>173.5173986112501</v>
       </c>
       <c r="W32" t="n">
-        <v>195.0061088585281</v>
+        <v>195.0061088585282</v>
       </c>
       <c r="X32" t="n">
         <v>215.4962408195842</v>
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>12.29832379098247</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>18.47363912943086</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>3.410220596516098</v>
       </c>
       <c r="F33" t="n">
-        <v>13.94585054183451</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0774710972763</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>80.23671347604525</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.63964069051124</v>
       </c>
       <c r="S33" t="n">
         <v>166.7414821159791</v>
@@ -3168,7 +3168,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>97.63545216204079</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.59712032305242</v>
+        <v>25.59712032305245</v>
       </c>
       <c r="C34" t="n">
-        <v>13.01196123974296</v>
+        <v>13.01196123974299</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>13.53307541496114</v>
+        <v>13.53307541496117</v>
       </c>
       <c r="H34" t="n">
-        <v>6.009247968997764</v>
+        <v>6.009247968997792</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.02965840469708</v>
+        <v>13.02965840469711</v>
       </c>
       <c r="S34" t="n">
-        <v>65.89468808533621</v>
+        <v>65.89468808533624</v>
       </c>
       <c r="T34" t="n">
-        <v>72.75772302605127</v>
+        <v>72.75772302605129</v>
       </c>
       <c r="U34" t="n">
-        <v>132.0720034566271</v>
+        <v>132.0720034566272</v>
       </c>
       <c r="V34" t="n">
-        <v>97.90278346494313</v>
+        <v>97.90278346494316</v>
       </c>
       <c r="W34" t="n">
-        <v>132.2881384777061</v>
+        <v>132.2881384777062</v>
       </c>
       <c r="X34" t="n">
-        <v>71.47479553015228</v>
+        <v>71.47479553015231</v>
       </c>
       <c r="Y34" t="n">
-        <v>64.34979349320992</v>
+        <v>64.34979349320994</v>
       </c>
     </row>
     <row r="35">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3354,10 +3354,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>97.62644127902796</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>83.63964069051124</v>
       </c>
       <c r="S36" t="n">
-        <v>166.7414821159791</v>
+        <v>148.7544235542142</v>
       </c>
       <c r="T36" t="n">
         <v>199.0923763501127</v>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>179.7734255950848</v>
+        <v>179.7734255950847</v>
       </c>
       <c r="C38" t="n">
         <v>162.3124757026117</v>
       </c>
       <c r="D38" t="n">
-        <v>151.7226255522872</v>
+        <v>151.7226255522871</v>
       </c>
       <c r="E38" t="n">
         <v>178.969954003866</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>17.95877184917806</v>
+        <v>17.95877184917804</v>
       </c>
       <c r="U38" t="n">
-        <v>48.34545775737911</v>
+        <v>48.34545775737908</v>
       </c>
       <c r="V38" t="n">
         <v>124.7918424017391</v>
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>99.56360863854972</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3594,10 +3594,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0774710972763</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.665999336552</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>166.7414821159791</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3642,10 +3642,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>48.7345670925238</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>201.8828811089327</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>17.16913187582528</v>
+        <v>17.16913187582525</v>
       </c>
       <c r="T40" t="n">
-        <v>24.03216681654034</v>
+        <v>24.03216681654031</v>
       </c>
       <c r="U40" t="n">
-        <v>83.3464472471162</v>
+        <v>83.34644724711617</v>
       </c>
       <c r="V40" t="n">
-        <v>49.1772272554322</v>
+        <v>49.17722725543217</v>
       </c>
       <c r="W40" t="n">
-        <v>83.5625822681952</v>
+        <v>83.56258226819517</v>
       </c>
       <c r="X40" t="n">
-        <v>22.74923932064135</v>
+        <v>22.74923932064132</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.62423728369899</v>
+        <v>15.62423728369896</v>
       </c>
     </row>
     <row r="41">
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>17.95877184917811</v>
+        <v>17.95877184917809</v>
       </c>
       <c r="U41" t="n">
         <v>48.34545775737914</v>
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>92.47614782809319</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3834,7 +3834,7 @@
         <v>137.0774710972763</v>
       </c>
       <c r="H42" t="n">
-        <v>109.665999336552</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>26.51256185419962</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.7414821159791</v>
       </c>
       <c r="T42" t="n">
         <v>199.0923763501127</v>
       </c>
       <c r="U42" t="n">
-        <v>22.96346298192547</v>
+        <v>225.9238790503212</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3882,7 +3882,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>2.812569135081702</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>179.7734255950848</v>
+        <v>179.7734255950847</v>
       </c>
       <c r="C44" t="n">
-        <v>162.3124757026118</v>
+        <v>162.3124757026117</v>
       </c>
       <c r="D44" t="n">
-        <v>151.7226255522872</v>
+        <v>151.7226255522871</v>
       </c>
       <c r="E44" t="n">
         <v>178.969954003866</v>
       </c>
       <c r="F44" t="n">
-        <v>203.9156296733157</v>
+        <v>203.9156296733156</v>
       </c>
       <c r="G44" t="n">
         <v>211.8450829209694</v>
       </c>
       <c r="H44" t="n">
-        <v>131.422041995331</v>
+        <v>131.4220419953306</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>17.95877184917811</v>
+        <v>17.95877184917805</v>
       </c>
       <c r="U44" t="n">
-        <v>48.34545775737914</v>
+        <v>48.34545775737908</v>
       </c>
       <c r="V44" t="n">
         <v>124.7918424017391</v>
@@ -4040,7 +4040,7 @@
         <v>146.2805526490172</v>
       </c>
       <c r="X44" t="n">
-        <v>166.7706846100733</v>
+        <v>166.7706846100732</v>
       </c>
       <c r="Y44" t="n">
         <v>183.2775225876578</v>
@@ -4053,28 +4053,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>163.3289388121432</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0774710972763</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.665999336552</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.23671347604525</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.63964069051124</v>
       </c>
       <c r="S45" t="n">
         <v>166.7414821159791</v>
@@ -4113,13 +4113,13 @@
         <v>225.9238790503212</v>
       </c>
       <c r="V45" t="n">
-        <v>114.7257718040224</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>48.73456709252383</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>2.812569135081702</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>17.16913187582531</v>
+        <v>17.16913187582525</v>
       </c>
       <c r="T46" t="n">
-        <v>24.03216681654036</v>
+        <v>24.03216681654031</v>
       </c>
       <c r="U46" t="n">
-        <v>83.34644724711623</v>
+        <v>83.34644724711617</v>
       </c>
       <c r="V46" t="n">
-        <v>49.17722725543223</v>
+        <v>49.17722725543217</v>
       </c>
       <c r="W46" t="n">
-        <v>83.56258226819523</v>
+        <v>83.56258226819517</v>
       </c>
       <c r="X46" t="n">
-        <v>22.74923932064138</v>
+        <v>22.74923932064132</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.62423728369902</v>
+        <v>15.62423728369896</v>
       </c>
     </row>
   </sheetData>
@@ -4784,40 +4784,40 @@
         <v>30.29632881784312</v>
       </c>
       <c r="D8" t="n">
-        <v>30.29632881784312</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E8" t="n">
-        <v>30.29632881784312</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F8" t="n">
-        <v>23.35082806863965</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G8" t="n">
-        <v>7.893517447291114</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H8" t="n">
-        <v>7.893517447291114</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I8" t="n">
-        <v>7.893517447291114</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J8" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L8" t="n">
-        <v>1.224219001210804</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M8" t="n">
-        <v>16.37392914119451</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="N8" t="n">
-        <v>30.9115297805728</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="O8" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
@@ -4829,22 +4829,22 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S8" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="T8" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="U8" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="V8" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="W8" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="X8" t="n">
         <v>45.75363943919166</v>
-      </c>
-      <c r="T8" t="n">
-        <v>45.75363943919166</v>
-      </c>
-      <c r="U8" t="n">
-        <v>30.29632881784312</v>
-      </c>
-      <c r="V8" t="n">
-        <v>30.29632881784312</v>
-      </c>
-      <c r="W8" t="n">
-        <v>30.29632881784312</v>
-      </c>
-      <c r="X8" t="n">
-        <v>30.29632881784312</v>
       </c>
       <c r="Y8" t="n">
         <v>30.29632881784312</v>
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="C9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D9" t="n">
-        <v>48.35028351804213</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E9" t="n">
-        <v>48.35028351804213</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F9" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J9" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K9" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M9" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="N9" t="n">
-        <v>16.37392914119451</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O9" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P9" t="n">
         <v>46.0612399205565</v>
@@ -4911,22 +4911,22 @@
         <v>61.2109500605402</v>
       </c>
       <c r="T9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U9" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V9" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W9" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="X9" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="Y9" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="K10" t="n">
         <v>1.224219001210804</v>
@@ -4978,34 +4978,34 @@
         <v>61.2109500605402</v>
       </c>
       <c r="P10" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R10" t="n">
-        <v>58.46202002507908</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S10" t="n">
-        <v>58.46202002507908</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="T10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="U10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V10" t="n">
-        <v>43.00470940373054</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="W10" t="n">
-        <v>43.00470940373054</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X10" t="n">
-        <v>27.54739878238201</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>602.870944120031</v>
+        <v>492.2533050631805</v>
       </c>
       <c r="C11" t="n">
-        <v>602.870944120031</v>
+        <v>255.9445718174555</v>
       </c>
       <c r="D11" t="n">
-        <v>377.2590292079674</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="E11" t="n">
-        <v>377.2590292079674</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="F11" t="n">
-        <v>377.2590292079674</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="G11" t="n">
-        <v>90.91735937804245</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="H11" t="n">
-        <v>90.91735937804245</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="I11" t="n">
         <v>30.33265690539179</v>
@@ -5045,10 +5045,10 @@
         <v>225.9164387697122</v>
       </c>
       <c r="L11" t="n">
-        <v>483.6755793232411</v>
+        <v>483.6755793232412</v>
       </c>
       <c r="M11" t="n">
-        <v>787.0888335313484</v>
+        <v>787.0888335313485</v>
       </c>
       <c r="N11" t="n">
         <v>1080.779633855521</v>
@@ -5069,22 +5069,22 @@
         <v>1449.600521206433</v>
       </c>
       <c r="T11" t="n">
-        <v>1449.600521206433</v>
+        <v>1359.103610034883</v>
       </c>
       <c r="U11" t="n">
-        <v>1328.409987905387</v>
+        <v>1237.913076733838</v>
       </c>
       <c r="V11" t="n">
-        <v>1130.000884256503</v>
+        <v>1039.503973084954</v>
       </c>
       <c r="W11" t="n">
-        <v>1101.168466967549</v>
+        <v>819.3891015095265</v>
       </c>
       <c r="X11" t="n">
-        <v>860.3564924011561</v>
+        <v>746.1993614326155</v>
       </c>
       <c r="Y11" t="n">
-        <v>602.870944120031</v>
+        <v>746.1993614326155</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>774.2576417814805</v>
+        <v>243.6425070027339</v>
       </c>
       <c r="C12" t="n">
-        <v>682.6683099009042</v>
+        <v>201.8432614162936</v>
       </c>
       <c r="D12" t="n">
-        <v>533.7339002396529</v>
+        <v>185.5626354497291</v>
       </c>
       <c r="E12" t="n">
-        <v>507.1502289288842</v>
+        <v>158.9789641389603</v>
       </c>
       <c r="F12" t="n">
-        <v>360.6156709557691</v>
+        <v>145.098189860532</v>
       </c>
       <c r="G12" t="n">
-        <v>222.1535789383183</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="H12" t="n">
-        <v>111.3798422347304</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="I12" t="n">
         <v>30.33265690539179</v>
       </c>
       <c r="J12" t="n">
-        <v>54.47769519076505</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="K12" t="n">
-        <v>222.3662545003936</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="L12" t="n">
-        <v>222.3662545003936</v>
+        <v>317.4839399190793</v>
       </c>
       <c r="M12" t="n">
-        <v>493.8925901190438</v>
+        <v>596.9080901057179</v>
       </c>
       <c r="N12" t="n">
-        <v>869.2592193232672</v>
+        <v>972.2747193099412</v>
       </c>
       <c r="O12" t="n">
-        <v>1180.678769062278</v>
+        <v>1283.694269048952</v>
       </c>
       <c r="P12" t="n">
-        <v>1413.617345282915</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="Q12" t="n">
         <v>1516.63284526959</v>
@@ -5145,25 +5145,25 @@
         <v>1516.63284526959</v>
       </c>
       <c r="S12" t="n">
-        <v>1480.860889453186</v>
+        <v>1348.2071057585</v>
       </c>
       <c r="T12" t="n">
         <v>1279.757478998527</v>
       </c>
       <c r="U12" t="n">
-        <v>1184.205324258546</v>
+        <v>1051.551540563859</v>
       </c>
       <c r="V12" t="n">
-        <v>1081.70699972149</v>
+        <v>816.3994323321167</v>
       </c>
       <c r="W12" t="n">
-        <v>960.123426687975</v>
+        <v>562.1620756039151</v>
       </c>
       <c r="X12" t="n">
-        <v>884.925710177129</v>
+        <v>354.3105753983823</v>
       </c>
       <c r="Y12" t="n">
-        <v>809.8191951068618</v>
+        <v>279.2040603281151</v>
       </c>
     </row>
     <row r="13">
@@ -5203,19 +5203,19 @@
         <v>217.1542737070442</v>
       </c>
       <c r="L13" t="n">
-        <v>407.3113387517309</v>
+        <v>277.2973653525684</v>
       </c>
       <c r="M13" t="n">
-        <v>611.1268927019133</v>
+        <v>481.1129193027508</v>
       </c>
       <c r="N13" t="n">
-        <v>818.6222264430889</v>
+        <v>688.6082530439264</v>
       </c>
       <c r="O13" t="n">
-        <v>1004.186481325181</v>
+        <v>874.1725079260186</v>
       </c>
       <c r="P13" t="n">
-        <v>1087.622341912336</v>
+        <v>1024.418659762039</v>
       </c>
       <c r="Q13" t="n">
         <v>1087.622341912336</v>
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>697.3569419894802</v>
+        <v>528.0723684343943</v>
       </c>
       <c r="C14" t="n">
-        <v>697.3569419894802</v>
+        <v>528.0723684343943</v>
       </c>
       <c r="D14" t="n">
-        <v>697.3569419894802</v>
+        <v>302.4604535223306</v>
       </c>
       <c r="E14" t="n">
-        <v>444.2224730859227</v>
+        <v>49.32598461877306</v>
       </c>
       <c r="F14" t="n">
-        <v>377.2590292079669</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="G14" t="n">
-        <v>90.91735937804242</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="H14" t="n">
-        <v>90.91735937804242</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="I14" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="J14" t="n">
-        <v>60.28333378761849</v>
+        <v>60.28333378761795</v>
       </c>
       <c r="K14" t="n">
-        <v>225.9164387697126</v>
+        <v>225.9164387697122</v>
       </c>
       <c r="L14" t="n">
-        <v>483.6755793232415</v>
+        <v>483.6755793232411</v>
       </c>
       <c r="M14" t="n">
-        <v>787.0888335313489</v>
+        <v>787.0888335313484</v>
       </c>
       <c r="N14" t="n">
-        <v>1080.779633855522</v>
+        <v>1080.779633855521</v>
       </c>
       <c r="O14" t="n">
         <v>1312.915890680385</v>
@@ -5306,22 +5306,22 @@
         <v>1449.600521206433</v>
       </c>
       <c r="T14" t="n">
-        <v>1449.600521206433</v>
+        <v>1359.103610034883</v>
       </c>
       <c r="U14" t="n">
-        <v>1449.600521206433</v>
+        <v>1237.913076733838</v>
       </c>
       <c r="V14" t="n">
-        <v>1449.600521206433</v>
+        <v>1039.503973084954</v>
       </c>
       <c r="W14" t="n">
-        <v>1449.600521206433</v>
+        <v>1039.503973084954</v>
       </c>
       <c r="X14" t="n">
-        <v>1208.78854664004</v>
+        <v>1039.503973084954</v>
       </c>
       <c r="Y14" t="n">
-        <v>951.3029983589151</v>
+        <v>782.0184248038294</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>613.6938187837565</v>
+        <v>424.465588846136</v>
       </c>
       <c r="C15" t="n">
-        <v>571.8945731973163</v>
+        <v>250.012559565009</v>
       </c>
       <c r="D15" t="n">
-        <v>555.6139472307518</v>
+        <v>233.7319335984444</v>
       </c>
       <c r="E15" t="n">
-        <v>396.3764922252963</v>
+        <v>74.49447859298894</v>
       </c>
       <c r="F15" t="n">
-        <v>249.8419342521813</v>
+        <v>60.61370431456066</v>
       </c>
       <c r="G15" t="n">
-        <v>111.3798422347304</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="H15" t="n">
-        <v>111.3798422347304</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="I15" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="J15" t="n">
-        <v>30.3326569053918</v>
+        <v>54.47769519076505</v>
       </c>
       <c r="K15" t="n">
-        <v>30.3326569053918</v>
+        <v>222.3662545003936</v>
       </c>
       <c r="L15" t="n">
-        <v>317.4839399190793</v>
+        <v>509.5175375140811</v>
       </c>
       <c r="M15" t="n">
-        <v>692.8505691233028</v>
+        <v>884.8841667183045</v>
       </c>
       <c r="N15" t="n">
-        <v>1068.217198327526</v>
+        <v>1102.197795543905</v>
       </c>
       <c r="O15" t="n">
-        <v>1379.636748066537</v>
+        <v>1413.617345282915</v>
       </c>
       <c r="P15" t="n">
-        <v>1413.617345282916</v>
+        <v>1413.617345282915</v>
       </c>
       <c r="Q15" t="n">
         <v>1516.63284526959</v>
@@ -5382,7 +5382,7 @@
         <v>1432.148359723619</v>
       </c>
       <c r="S15" t="n">
-        <v>1263.722620212529</v>
+        <v>1396.376403907215</v>
       </c>
       <c r="T15" t="n">
         <v>1195.272993452556</v>
@@ -5391,16 +5391,16 @@
         <v>1099.720838712575</v>
       </c>
       <c r="V15" t="n">
-        <v>997.2225141755193</v>
+        <v>864.5687304808321</v>
       </c>
       <c r="W15" t="n">
-        <v>875.6389411420046</v>
+        <v>742.9851574473172</v>
       </c>
       <c r="X15" t="n">
-        <v>724.3618871794047</v>
+        <v>667.7874409364712</v>
       </c>
       <c r="Y15" t="n">
-        <v>649.2553721091376</v>
+        <v>460.0271421715173</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>197.1827153748805</v>
+        <v>197.1827153748809</v>
       </c>
       <c r="C16" t="n">
-        <v>160.9003161416604</v>
+        <v>160.9003161416608</v>
       </c>
       <c r="D16" t="n">
-        <v>143.4374604240115</v>
+        <v>143.4374604240118</v>
       </c>
       <c r="E16" t="n">
-        <v>128.1781505363052</v>
+        <v>128.1781505363055</v>
       </c>
       <c r="F16" t="n">
-        <v>113.9419867330817</v>
+        <v>113.9419867330818</v>
       </c>
       <c r="G16" t="n">
-        <v>77.13320954509575</v>
+        <v>77.13320954509585</v>
       </c>
       <c r="H16" t="n">
-        <v>47.92425806010312</v>
+        <v>47.92425806010317</v>
       </c>
       <c r="I16" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="J16" t="n">
-        <v>30.3326569053918</v>
+        <v>83.53256660334796</v>
       </c>
       <c r="K16" t="n">
-        <v>163.954364009088</v>
+        <v>217.1542737070442</v>
       </c>
       <c r="L16" t="n">
-        <v>354.1114290537748</v>
+        <v>407.3113387517309</v>
       </c>
       <c r="M16" t="n">
-        <v>557.9269830039573</v>
+        <v>481.1129193027509</v>
       </c>
       <c r="N16" t="n">
-        <v>765.4223167451329</v>
+        <v>684.8282512933488</v>
       </c>
       <c r="O16" t="n">
-        <v>933.5961883257365</v>
+        <v>870.392506175441</v>
       </c>
       <c r="P16" t="n">
-        <v>1087.622341912335</v>
+        <v>1024.418659762039</v>
       </c>
       <c r="Q16" t="n">
-        <v>1087.622341912335</v>
+        <v>1087.622341912336</v>
       </c>
       <c r="R16" t="n">
-        <v>1051.322066754919</v>
+        <v>1051.32206675492</v>
       </c>
       <c r="S16" t="n">
-        <v>961.6227717180693</v>
+        <v>961.6227717180702</v>
       </c>
       <c r="T16" t="n">
-        <v>864.9911181552449</v>
+        <v>864.9911181552457</v>
       </c>
       <c r="U16" t="n">
-        <v>708.4460500160811</v>
+        <v>708.4460500160819</v>
       </c>
       <c r="V16" t="n">
-        <v>586.4153455048811</v>
+        <v>586.4153455048818</v>
       </c>
       <c r="W16" t="n">
-        <v>429.6519591626072</v>
+        <v>429.6519591626079</v>
       </c>
       <c r="X16" t="n">
-        <v>334.3161919592767</v>
+        <v>334.3161919592773</v>
       </c>
       <c r="Y16" t="n">
-        <v>246.1773965104334</v>
+        <v>246.1773965104339</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>869.9212986872026</v>
+        <v>869.9212986872027</v>
       </c>
       <c r="C17" t="n">
-        <v>741.1536556347982</v>
+        <v>741.1536556347983</v>
       </c>
       <c r="D17" t="n">
-        <v>623.0828309160548</v>
+        <v>623.0828309160551</v>
       </c>
       <c r="E17" t="n">
-        <v>477.4894522058178</v>
+        <v>477.4894522058181</v>
       </c>
       <c r="F17" t="n">
-        <v>306.6984213042174</v>
+        <v>306.6984213042181</v>
       </c>
       <c r="G17" t="n">
-        <v>127.8978416676137</v>
+        <v>127.8978416676136</v>
       </c>
       <c r="H17" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="I17" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="J17" t="n">
-        <v>60.28333378761809</v>
+        <v>60.28333378761808</v>
       </c>
       <c r="K17" t="n">
         <v>225.9164387697122</v>
@@ -5522,7 +5522,7 @@
         <v>483.6755793232412</v>
       </c>
       <c r="M17" t="n">
-        <v>787.0888335313484</v>
+        <v>787.0888335313487</v>
       </c>
       <c r="N17" t="n">
         <v>1080.779633855521</v>
@@ -5534,19 +5534,19 @@
         <v>1473.364432310758</v>
       </c>
       <c r="Q17" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="R17" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="S17" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="T17" t="n">
         <v>1516.63284526959</v>
       </c>
       <c r="U17" t="n">
-        <v>1502.983402161865</v>
+        <v>1502.983402161864</v>
       </c>
       <c r="V17" t="n">
         <v>1412.115388706301</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>450.3624141161654</v>
+        <v>236.5436524924523</v>
       </c>
       <c r="C18" t="n">
-        <v>450.3624141161654</v>
+        <v>62.09062321132532</v>
       </c>
       <c r="D18" t="n">
-        <v>301.4280044549142</v>
+        <v>62.09062321132532</v>
       </c>
       <c r="E18" t="n">
-        <v>249.8419342521813</v>
+        <v>62.09062321132532</v>
       </c>
       <c r="F18" t="n">
-        <v>249.8419342521813</v>
+        <v>62.09062321132532</v>
       </c>
       <c r="G18" t="n">
-        <v>111.3798422347304</v>
+        <v>62.09062321132532</v>
       </c>
       <c r="H18" t="n">
-        <v>111.3798422347304</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="I18" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="J18" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="K18" t="n">
-        <v>30.3326569053918</v>
+        <v>64.31325412177063</v>
       </c>
       <c r="L18" t="n">
-        <v>317.4839399190793</v>
+        <v>351.4645371354582</v>
       </c>
       <c r="M18" t="n">
-        <v>692.8505691233028</v>
+        <v>726.8311663396815</v>
       </c>
       <c r="N18" t="n">
-        <v>972.2747193099412</v>
+        <v>1102.197795543905</v>
       </c>
       <c r="O18" t="n">
-        <v>1283.694269048952</v>
+        <v>1413.617345282915</v>
       </c>
       <c r="P18" t="n">
-        <v>1516.63284526959</v>
+        <v>1413.617345282915</v>
       </c>
       <c r="Q18" t="n">
         <v>1516.63284526959</v>
       </c>
       <c r="R18" t="n">
-        <v>1516.63284526959</v>
+        <v>1432.148359723619</v>
       </c>
       <c r="S18" t="n">
-        <v>1516.63284526959</v>
+        <v>1263.722620212529</v>
       </c>
       <c r="T18" t="n">
-        <v>1516.63284526959</v>
+        <v>1062.619209757869</v>
       </c>
       <c r="U18" t="n">
-        <v>1288.426906834922</v>
+        <v>834.4132713232015</v>
       </c>
       <c r="V18" t="n">
-        <v>1288.426906834922</v>
+        <v>834.4132713232015</v>
       </c>
       <c r="W18" t="n">
-        <v>1034.18955010672</v>
+        <v>820.3707884830071</v>
       </c>
       <c r="X18" t="n">
-        <v>826.3380499011873</v>
+        <v>612.5192882774743</v>
       </c>
       <c r="Y18" t="n">
-        <v>618.5777511362335</v>
+        <v>404.7589895125204</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>212.212996406172</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="C19" t="n">
-        <v>212.212996406172</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="D19" t="n">
-        <v>212.212996406172</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="E19" t="n">
-        <v>64.29990282377887</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="F19" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="G19" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="H19" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="I19" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="J19" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="K19" t="n">
-        <v>33.9403906099255</v>
+        <v>33.94039060992549</v>
       </c>
       <c r="L19" t="n">
         <v>94.08348225544972</v>
@@ -5698,25 +5698,25 @@
         <v>324.9288848188485</v>
       </c>
       <c r="S19" t="n">
-        <v>324.9288848188485</v>
+        <v>143.0485453180681</v>
       </c>
       <c r="T19" t="n">
-        <v>324.9288848188485</v>
+        <v>143.0485453180681</v>
       </c>
       <c r="U19" t="n">
-        <v>275.9249068730052</v>
+        <v>94.04456737222479</v>
       </c>
       <c r="V19" t="n">
-        <v>261.4352925551254</v>
+        <v>79.55495305434516</v>
       </c>
       <c r="W19" t="n">
-        <v>212.212996406172</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="X19" t="n">
-        <v>212.212996406172</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.212996406172</v>
+        <v>30.33265690539179</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>869.9212986872028</v>
+        <v>869.9212986872027</v>
       </c>
       <c r="C20" t="n">
         <v>741.1536556347983</v>
       </c>
       <c r="D20" t="n">
-        <v>623.0828309160549</v>
+        <v>623.0828309160552</v>
       </c>
       <c r="E20" t="n">
-        <v>477.4894522058179</v>
+        <v>477.4894522058182</v>
       </c>
       <c r="F20" t="n">
-        <v>306.6984213042176</v>
+        <v>306.698421304218</v>
       </c>
       <c r="G20" t="n">
         <v>127.8978416676136</v>
       </c>
       <c r="H20" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="I20" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="J20" t="n">
-        <v>60.28333378761809</v>
+        <v>60.28333378761808</v>
       </c>
       <c r="K20" t="n">
         <v>225.9164387697122</v>
@@ -5774,7 +5774,7 @@
         <v>1516.632845269589</v>
       </c>
       <c r="R20" t="n">
-        <v>1516.63284526959</v>
+        <v>1516.632845269589</v>
       </c>
       <c r="S20" t="n">
         <v>1516.63284526959</v>
@@ -5783,19 +5783,19 @@
         <v>1516.63284526959</v>
       </c>
       <c r="U20" t="n">
-        <v>1502.983402161865</v>
+        <v>1502.983402161864</v>
       </c>
       <c r="V20" t="n">
-        <v>1412.115388706302</v>
+        <v>1412.115388706301</v>
       </c>
       <c r="W20" t="n">
-        <v>1299.541607324195</v>
+        <v>1299.541607324194</v>
       </c>
       <c r="X20" t="n">
         <v>1166.270722951122</v>
       </c>
       <c r="Y20" t="n">
-        <v>1016.326264863318</v>
+        <v>1016.326264863317</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>840.8407132154667</v>
+        <v>512.9575508532256</v>
       </c>
       <c r="C21" t="n">
-        <v>666.3876839343397</v>
+        <v>338.5045215720986</v>
       </c>
       <c r="D21" t="n">
-        <v>666.3876839343397</v>
+        <v>189.5701119108473</v>
       </c>
       <c r="E21" t="n">
-        <v>507.1502289288842</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="F21" t="n">
-        <v>360.6156709557691</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="G21" t="n">
-        <v>222.1535789383183</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="H21" t="n">
-        <v>111.3798422347304</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="I21" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="J21" t="n">
         <v>54.47769519076505</v>
       </c>
       <c r="K21" t="n">
-        <v>222.3662545003936</v>
+        <v>118.5259609148204</v>
       </c>
       <c r="L21" t="n">
-        <v>509.5175375140811</v>
+        <v>118.5259609148204</v>
       </c>
       <c r="M21" t="n">
-        <v>884.8841667183046</v>
+        <v>493.8925901190438</v>
       </c>
       <c r="N21" t="n">
-        <v>884.8841667183046</v>
+        <v>869.2592193232672</v>
       </c>
       <c r="O21" t="n">
-        <v>1196.303716457315</v>
+        <v>1180.678769062278</v>
       </c>
       <c r="P21" t="n">
-        <v>1429.242292677953</v>
+        <v>1413.617345282915</v>
       </c>
       <c r="Q21" t="n">
         <v>1516.63284526959</v>
       </c>
       <c r="R21" t="n">
-        <v>1516.63284526959</v>
+        <v>1432.148359723619</v>
       </c>
       <c r="S21" t="n">
-        <v>1516.63284526959</v>
+        <v>1432.148359723619</v>
       </c>
       <c r="T21" t="n">
-        <v>1516.63284526959</v>
+        <v>1231.044949268959</v>
       </c>
       <c r="U21" t="n">
-        <v>1288.426906834922</v>
+        <v>1210.107314578124</v>
       </c>
       <c r="V21" t="n">
-        <v>1062.734696261194</v>
+        <v>974.9552063463811</v>
       </c>
       <c r="W21" t="n">
-        <v>1048.692213420999</v>
+        <v>720.7178496181796</v>
       </c>
       <c r="X21" t="n">
-        <v>840.8407132154667</v>
+        <v>720.7178496181796</v>
       </c>
       <c r="Y21" t="n">
-        <v>840.8407132154667</v>
+        <v>512.9575508532256</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>177.2226044033021</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="C22" t="n">
-        <v>177.2226044033021</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="D22" t="n">
-        <v>177.2226044033021</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="E22" t="n">
-        <v>177.2226044033021</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="F22" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="G22" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="H22" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="I22" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="J22" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="K22" t="n">
-        <v>33.9403906099255</v>
+        <v>33.94039060992549</v>
       </c>
       <c r="L22" t="n">
         <v>94.08348225544972</v>
@@ -5941,19 +5941,19 @@
         <v>324.9288848188485</v>
       </c>
       <c r="U22" t="n">
-        <v>275.9249068730052</v>
+        <v>275.9249068730053</v>
       </c>
       <c r="V22" t="n">
-        <v>261.4352925551256</v>
+        <v>261.4352925551257</v>
       </c>
       <c r="W22" t="n">
-        <v>212.2129964061722</v>
+        <v>212.2129964061723</v>
       </c>
       <c r="X22" t="n">
-        <v>212.2129964061722</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.2129964061722</v>
+        <v>30.33265690539179</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>869.9212986872028</v>
+        <v>869.9212986872024</v>
       </c>
       <c r="C23" t="n">
-        <v>741.1536556347985</v>
+        <v>741.1536556347978</v>
       </c>
       <c r="D23" t="n">
-        <v>623.0828309160554</v>
+        <v>623.0828309160545</v>
       </c>
       <c r="E23" t="n">
-        <v>477.4894522058184</v>
+        <v>477.4894522058175</v>
       </c>
       <c r="F23" t="n">
-        <v>306.6984213042181</v>
+        <v>306.6984213042172</v>
       </c>
       <c r="G23" t="n">
         <v>127.8978416676136</v>
       </c>
       <c r="H23" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="I23" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="J23" t="n">
-        <v>60.28333378761809</v>
+        <v>60.28333378761808</v>
       </c>
       <c r="K23" t="n">
         <v>225.9164387697122</v>
@@ -6008,10 +6008,10 @@
         <v>1473.364432310758</v>
       </c>
       <c r="Q23" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="R23" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="S23" t="n">
         <v>1516.63284526959</v>
@@ -6020,16 +6020,16 @@
         <v>1516.63284526959</v>
       </c>
       <c r="U23" t="n">
-        <v>1502.983402161865</v>
+        <v>1502.983402161864</v>
       </c>
       <c r="V23" t="n">
         <v>1412.115388706301</v>
       </c>
       <c r="W23" t="n">
-        <v>1299.541607324195</v>
+        <v>1299.541607324194</v>
       </c>
       <c r="X23" t="n">
-        <v>1166.270722951122</v>
+        <v>1166.270722951121</v>
       </c>
       <c r="Y23" t="n">
         <v>1016.326264863317</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>449.8627301383635</v>
+        <v>512.9575508532256</v>
       </c>
       <c r="C24" t="n">
-        <v>275.4097008572365</v>
+        <v>338.5045215720986</v>
       </c>
       <c r="D24" t="n">
-        <v>275.4097008572365</v>
+        <v>189.5701119108473</v>
       </c>
       <c r="E24" t="n">
-        <v>116.172245851781</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="F24" t="n">
-        <v>116.172245851781</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="G24" t="n">
-        <v>116.172245851781</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="H24" t="n">
-        <v>111.3798422347304</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="I24" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="J24" t="n">
         <v>54.47769519076505</v>
       </c>
       <c r="K24" t="n">
-        <v>222.3662545003936</v>
+        <v>54.47769519076505</v>
       </c>
       <c r="L24" t="n">
-        <v>509.5175375140811</v>
+        <v>341.6289782044526</v>
       </c>
       <c r="M24" t="n">
-        <v>869.2592193232672</v>
+        <v>716.9956074086759</v>
       </c>
       <c r="N24" t="n">
-        <v>869.2592193232672</v>
+        <v>1092.362236612899</v>
       </c>
       <c r="O24" t="n">
         <v>1180.678769062278</v>
       </c>
       <c r="P24" t="n">
-        <v>1413.617345282916</v>
+        <v>1413.617345282915</v>
       </c>
       <c r="Q24" t="n">
         <v>1516.63284526959</v>
       </c>
       <c r="R24" t="n">
-        <v>1516.63284526959</v>
+        <v>1432.148359723619</v>
       </c>
       <c r="S24" t="n">
-        <v>1348.2071057585</v>
+        <v>1263.722620212529</v>
       </c>
       <c r="T24" t="n">
-        <v>1147.103695303841</v>
+        <v>1062.619209757869</v>
       </c>
       <c r="U24" t="n">
-        <v>1147.103695303841</v>
+        <v>834.4132713232015</v>
       </c>
       <c r="V24" t="n">
-        <v>911.9515870720979</v>
+        <v>599.2611630914587</v>
       </c>
       <c r="W24" t="n">
-        <v>657.7142303438964</v>
+        <v>585.2186802512642</v>
       </c>
       <c r="X24" t="n">
-        <v>449.8627301383635</v>
+        <v>585.2186802512642</v>
       </c>
       <c r="Y24" t="n">
-        <v>449.8627301383635</v>
+        <v>585.2186802512642</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="C25" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="D25" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="E25" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="F25" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="G25" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="H25" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="I25" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="J25" t="n">
-        <v>30.3326569053918</v>
+        <v>30.33265690539179</v>
       </c>
       <c r="K25" t="n">
-        <v>33.9403906099255</v>
+        <v>33.94039060992549</v>
       </c>
       <c r="L25" t="n">
         <v>94.08348225544972</v>
@@ -6166,31 +6166,31 @@
         <v>324.9288848188485</v>
       </c>
       <c r="Q25" t="n">
-        <v>324.9288848188485</v>
+        <v>256.7620740353921</v>
       </c>
       <c r="R25" t="n">
-        <v>324.9288848188485</v>
+        <v>256.7620740353921</v>
       </c>
       <c r="S25" t="n">
-        <v>324.9288848188485</v>
+        <v>256.7620740353921</v>
       </c>
       <c r="T25" t="n">
-        <v>324.9288848188485</v>
+        <v>256.7620740353921</v>
       </c>
       <c r="U25" t="n">
-        <v>275.9249068730052</v>
+        <v>207.7580960895488</v>
       </c>
       <c r="V25" t="n">
-        <v>261.4352925551256</v>
+        <v>193.2684817716691</v>
       </c>
       <c r="W25" t="n">
-        <v>212.2129964061722</v>
+        <v>144.0461856227157</v>
       </c>
       <c r="X25" t="n">
-        <v>212.2129964061722</v>
+        <v>144.0461856227157</v>
       </c>
       <c r="Y25" t="n">
-        <v>30.3326569053918</v>
+        <v>144.0461856227157</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1466.702070641501</v>
+        <v>1466.7020706415</v>
       </c>
       <c r="C26" t="n">
-        <v>1249.533226033381</v>
+        <v>1249.53322603338</v>
       </c>
       <c r="D26" t="n">
-        <v>1043.061199758923</v>
+        <v>1043.061199758922</v>
       </c>
       <c r="E26" t="n">
-        <v>809.0666194929706</v>
+        <v>809.0666194929697</v>
       </c>
       <c r="F26" t="n">
-        <v>549.8743870356552</v>
+        <v>549.8743870356543</v>
       </c>
       <c r="G26" t="n">
-        <v>282.672605843336</v>
+        <v>282.6726058433351</v>
       </c>
       <c r="H26" t="n">
         <v>96.70621952539878</v>
@@ -6224,7 +6224,7 @@
         <v>55.26140569035348</v>
       </c>
       <c r="J26" t="n">
-        <v>233.9850608254592</v>
+        <v>233.9850608254593</v>
       </c>
       <c r="K26" t="n">
         <v>548.3911440604329</v>
@@ -6239,7 +6239,7 @@
         <v>1849.57327390488</v>
       </c>
       <c r="O26" t="n">
-        <v>2230.482508982623</v>
+        <v>2230.482508982624</v>
       </c>
       <c r="P26" t="n">
         <v>2539.704028865876</v>
@@ -6254,19 +6254,19 @@
         <v>2715.177849092122</v>
       </c>
       <c r="T26" t="n">
-        <v>2643.820826558178</v>
+        <v>2643.820826558177</v>
       </c>
       <c r="U26" t="n">
         <v>2541.770181894738</v>
       </c>
       <c r="V26" t="n">
-        <v>2362.50096688346</v>
+        <v>2362.500966883459</v>
       </c>
       <c r="W26" t="n">
-        <v>2161.525983945638</v>
+        <v>2161.525983945637</v>
       </c>
       <c r="X26" t="n">
-        <v>1939.85389801685</v>
+        <v>1939.853898016849</v>
       </c>
       <c r="Y26" t="n">
         <v>1701.50823837333</v>
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>781.8630140000488</v>
+        <v>226.4778240242845</v>
       </c>
       <c r="C27" t="n">
-        <v>759.2036570512139</v>
+        <v>203.8184670754495</v>
       </c>
       <c r="D27" t="n">
-        <v>610.2692473899626</v>
+        <v>203.8184670754495</v>
       </c>
       <c r="E27" t="n">
-        <v>451.0317923845072</v>
+        <v>196.3746844022861</v>
       </c>
       <c r="F27" t="n">
-        <v>304.4972344113921</v>
+        <v>193.7234977078043</v>
       </c>
       <c r="G27" t="n">
-        <v>166.0351423939413</v>
+        <v>55.26140569035348</v>
       </c>
       <c r="H27" t="n">
         <v>55.26140569035348</v>
@@ -6333,22 +6333,22 @@
         <v>1729.003773864111</v>
       </c>
       <c r="T27" t="n">
-        <v>1627.904536388339</v>
+        <v>1527.900363409452</v>
       </c>
       <c r="U27" t="n">
-        <v>1551.492270285964</v>
+        <v>1299.694424974783</v>
       </c>
       <c r="V27" t="n">
-        <v>1316.340162054221</v>
+        <v>1064.542316743041</v>
       </c>
       <c r="W27" t="n">
-        <v>1062.102805326019</v>
+        <v>810.3049600148393</v>
       </c>
       <c r="X27" t="n">
-        <v>1006.044977452779</v>
+        <v>602.4534598093064</v>
       </c>
       <c r="Y27" t="n">
-        <v>950.0783510201168</v>
+        <v>394.6931610443525</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.1418676837363</v>
+        <v>89.8887117759335</v>
       </c>
       <c r="C28" t="n">
-        <v>82.99935708812149</v>
+        <v>72.74620118031869</v>
       </c>
       <c r="D28" t="n">
-        <v>82.99935708812149</v>
+        <v>74.38986114516794</v>
       </c>
       <c r="E28" t="n">
-        <v>82.99935708812149</v>
+        <v>78.19321637794394</v>
       </c>
       <c r="F28" t="n">
         <v>82.99935708812149</v>
@@ -6379,55 +6379,55 @@
         <v>55.26140569035348</v>
       </c>
       <c r="I28" t="n">
-        <v>55.26140569035348</v>
+        <v>56.77888225233786</v>
       </c>
       <c r="J28" t="n">
-        <v>55.26140569035348</v>
+        <v>67.15417790284545</v>
       </c>
       <c r="K28" t="n">
-        <v>207.6421176477667</v>
+        <v>70.76191160737915</v>
       </c>
       <c r="L28" t="n">
-        <v>416.5581875461704</v>
+        <v>279.6779815057828</v>
       </c>
       <c r="M28" t="n">
-        <v>639.1327463500699</v>
+        <v>353.4795620568028</v>
       </c>
       <c r="N28" t="n">
-        <v>716.6141066920829</v>
+        <v>579.7339006516954</v>
       </c>
       <c r="O28" t="n">
-        <v>772.1643881750126</v>
+        <v>784.0571603875046</v>
       </c>
       <c r="P28" t="n">
-        <v>818.3224964827434</v>
+        <v>808.0693405749406</v>
       </c>
       <c r="Q28" t="n">
-        <v>818.3224964827434</v>
+        <v>808.0693405749406</v>
       </c>
       <c r="R28" t="n">
-        <v>801.1621099629325</v>
+        <v>790.9089540551297</v>
       </c>
       <c r="S28" t="n">
-        <v>730.6027035636881</v>
+        <v>720.3495476558853</v>
       </c>
       <c r="T28" t="n">
-        <v>653.110938638469</v>
+        <v>642.8577827306661</v>
       </c>
       <c r="U28" t="n">
-        <v>515.7057591369105</v>
+        <v>505.4526032291077</v>
       </c>
       <c r="V28" t="n">
-        <v>412.8149432633157</v>
+        <v>402.5617873555129</v>
       </c>
       <c r="W28" t="n">
-        <v>275.1914455586472</v>
+        <v>264.9382896508444</v>
       </c>
       <c r="X28" t="n">
-        <v>198.9955669929219</v>
+        <v>188.7424110851191</v>
       </c>
       <c r="Y28" t="n">
-        <v>129.9966601816839</v>
+        <v>119.7435042738811</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1466.702070641501</v>
+        <v>1466.7020706415</v>
       </c>
       <c r="C29" t="n">
-        <v>1249.533226033381</v>
+        <v>1249.53322603338</v>
       </c>
       <c r="D29" t="n">
-        <v>1043.061199758923</v>
+        <v>1043.061199758922</v>
       </c>
       <c r="E29" t="n">
-        <v>809.0666194929706</v>
+        <v>809.0666194929697</v>
       </c>
       <c r="F29" t="n">
-        <v>549.8743870356552</v>
+        <v>549.8743870356543</v>
       </c>
       <c r="G29" t="n">
-        <v>282.672605843336</v>
+        <v>282.6726058433351</v>
       </c>
       <c r="H29" t="n">
-        <v>96.70621952539886</v>
+        <v>96.70621952539884</v>
       </c>
       <c r="I29" t="n">
-        <v>55.2614056903535</v>
+        <v>55.26140569035348</v>
       </c>
       <c r="J29" t="n">
-        <v>233.9850608254601</v>
+        <v>233.9850608254592</v>
       </c>
       <c r="K29" t="n">
-        <v>548.3911440604336</v>
+        <v>548.3911440604328</v>
       </c>
       <c r="L29" t="n">
-        <v>954.9232628668419</v>
+        <v>954.9232628668415</v>
       </c>
       <c r="M29" t="n">
-        <v>1407.109495327829</v>
+        <v>1407.109495327828</v>
       </c>
       <c r="N29" t="n">
-        <v>1849.573273904881</v>
+        <v>1849.57327390488</v>
       </c>
       <c r="O29" t="n">
         <v>2230.482508982624</v>
@@ -6485,28 +6485,28 @@
         <v>2731.745420077587</v>
       </c>
       <c r="R29" t="n">
-        <v>2763.070284517675</v>
+        <v>2763.070284517674</v>
       </c>
       <c r="S29" t="n">
         <v>2715.177849092123</v>
       </c>
       <c r="T29" t="n">
-        <v>2643.82082655818</v>
+        <v>2643.820826558179</v>
       </c>
       <c r="U29" t="n">
-        <v>2541.77018189474</v>
+        <v>2541.770181894738</v>
       </c>
       <c r="V29" t="n">
-        <v>2362.500966883461</v>
+        <v>2362.50096688346</v>
       </c>
       <c r="W29" t="n">
-        <v>2161.525983945639</v>
+        <v>2161.525983945638</v>
       </c>
       <c r="X29" t="n">
-        <v>1939.853898016851</v>
+        <v>1939.85389801685</v>
       </c>
       <c r="Y29" t="n">
-        <v>1701.508238373331</v>
+        <v>1701.50823837333</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>781.8630140000489</v>
+        <v>524.554719323346</v>
       </c>
       <c r="C30" t="n">
-        <v>759.2036570512139</v>
+        <v>350.101690042219</v>
       </c>
       <c r="D30" t="n">
-        <v>610.2692473899626</v>
+        <v>201.1672803809678</v>
       </c>
       <c r="E30" t="n">
-        <v>451.0317923845072</v>
+        <v>193.7234977078043</v>
       </c>
       <c r="F30" t="n">
-        <v>304.4972344113921</v>
+        <v>193.7234977078043</v>
       </c>
       <c r="G30" t="n">
-        <v>166.0351423939413</v>
+        <v>55.26140569035348</v>
       </c>
       <c r="H30" t="n">
-        <v>55.2614056903535</v>
+        <v>55.26140569035348</v>
       </c>
       <c r="I30" t="n">
-        <v>55.2614056903535</v>
+        <v>55.26140569035348</v>
       </c>
       <c r="J30" t="n">
-        <v>79.40644397572676</v>
+        <v>79.40644397572675</v>
       </c>
       <c r="K30" t="n">
         <v>247.2950032853553</v>
@@ -6564,28 +6564,28 @@
         <v>1981.913998921172</v>
       </c>
       <c r="R30" t="n">
-        <v>1981.913998921172</v>
+        <v>1897.429513375201</v>
       </c>
       <c r="S30" t="n">
-        <v>1829.007946842999</v>
+        <v>1880.797446196403</v>
       </c>
       <c r="T30" t="n">
-        <v>1627.90453638834</v>
+        <v>1679.694035741743</v>
       </c>
       <c r="U30" t="n">
-        <v>1551.492270285964</v>
+        <v>1451.488097307075</v>
       </c>
       <c r="V30" t="n">
-        <v>1468.133834386513</v>
+        <v>1216.335989075333</v>
       </c>
       <c r="W30" t="n">
-        <v>1213.896477658312</v>
+        <v>962.0986323471311</v>
       </c>
       <c r="X30" t="n">
-        <v>1157.838649785071</v>
+        <v>754.2471321415983</v>
       </c>
       <c r="Y30" t="n">
-        <v>950.078351020117</v>
+        <v>546.4868333766444</v>
       </c>
     </row>
     <row r="31">
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>91.53237174078303</v>
+        <v>89.88871177593384</v>
       </c>
       <c r="C31" t="n">
-        <v>74.38986114516817</v>
+        <v>72.74620118031898</v>
       </c>
       <c r="D31" t="n">
         <v>74.38986114516817</v>
@@ -6610,61 +6610,61 @@
         <v>82.9993570881216</v>
       </c>
       <c r="G31" t="n">
-        <v>65.3304685377409</v>
+        <v>65.33046853774088</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2614056903535</v>
+        <v>55.26140569035348</v>
       </c>
       <c r="I31" t="n">
-        <v>56.77888225233782</v>
+        <v>56.7788822523378</v>
       </c>
       <c r="J31" t="n">
-        <v>128.7377968040109</v>
+        <v>56.7788822523378</v>
       </c>
       <c r="K31" t="n">
-        <v>132.3455305085446</v>
+        <v>60.38661595687151</v>
       </c>
       <c r="L31" t="n">
-        <v>192.4886221540689</v>
+        <v>120.5297076023957</v>
       </c>
       <c r="M31" t="n">
-        <v>415.0631809579683</v>
+        <v>194.3312881534157</v>
       </c>
       <c r="N31" t="n">
-        <v>641.3175195528609</v>
+        <v>348.998235394803</v>
       </c>
       <c r="O31" t="n">
-        <v>696.8678010357905</v>
+        <v>553.3214951306121</v>
       </c>
       <c r="P31" t="n">
-        <v>727.7503135357766</v>
+        <v>726.1066535709275</v>
       </c>
       <c r="Q31" t="n">
-        <v>809.7130005397904</v>
+        <v>808.0693405749413</v>
       </c>
       <c r="R31" t="n">
-        <v>792.5526140199795</v>
+        <v>790.9089540551304</v>
       </c>
       <c r="S31" t="n">
-        <v>721.9932076207351</v>
+        <v>720.349547655886</v>
       </c>
       <c r="T31" t="n">
-        <v>644.5014426955159</v>
+        <v>642.8577827306667</v>
       </c>
       <c r="U31" t="n">
-        <v>507.0962631939575</v>
+        <v>505.4526032291083</v>
       </c>
       <c r="V31" t="n">
-        <v>404.2054473203626</v>
+        <v>402.5617873555134</v>
       </c>
       <c r="W31" t="n">
-        <v>266.581949615694</v>
+        <v>264.9382896508449</v>
       </c>
       <c r="X31" t="n">
-        <v>190.3860710499687</v>
+        <v>188.7424110851196</v>
       </c>
       <c r="Y31" t="n">
-        <v>121.3871642387307</v>
+        <v>119.7435042738815</v>
       </c>
     </row>
     <row r="32">
@@ -6680,19 +6680,19 @@
         <v>1224.314314608439</v>
       </c>
       <c r="D32" t="n">
-        <v>1021.841403737935</v>
+        <v>1021.841403737936</v>
       </c>
       <c r="E32" t="n">
-        <v>791.8459388759384</v>
+        <v>791.8459388759391</v>
       </c>
       <c r="F32" t="n">
-        <v>536.6528218225782</v>
+        <v>536.6528218225789</v>
       </c>
       <c r="G32" t="n">
-        <v>273.4501560342142</v>
+        <v>273.4501560342148</v>
       </c>
       <c r="H32" t="n">
-        <v>91.48288512023274</v>
+        <v>91.48288512023277</v>
       </c>
       <c r="I32" t="n">
         <v>54.03718668914269</v>
@@ -6707,31 +6707,31 @@
         <v>965.4576428878802</v>
       </c>
       <c r="M32" t="n">
-        <v>1421.563408356284</v>
+        <v>1326.300880230205</v>
       </c>
       <c r="N32" t="n">
-        <v>1867.946719940752</v>
+        <v>1772.684191814674</v>
       </c>
       <c r="O32" t="n">
-        <v>2252.775488025912</v>
+        <v>2157.512959899833</v>
       </c>
       <c r="P32" t="n">
-        <v>2565.916540916581</v>
+        <v>2470.654012790502</v>
       </c>
       <c r="Q32" t="n">
         <v>2666.61493700963</v>
       </c>
       <c r="R32" t="n">
-        <v>2701.859334457135</v>
+        <v>2701.859334457134</v>
       </c>
       <c r="S32" t="n">
         <v>2657.966014435538</v>
       </c>
       <c r="T32" t="n">
-        <v>2590.608107305549</v>
+        <v>2590.60810730555</v>
       </c>
       <c r="U32" t="n">
-        <v>2492.556578046064</v>
+        <v>2492.556578046065</v>
       </c>
       <c r="V32" t="n">
         <v>2317.286478438741</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>465.5308783052921</v>
+        <v>380.8692929007292</v>
       </c>
       <c r="C33" t="n">
-        <v>446.8706367604124</v>
+        <v>206.4162636196021</v>
       </c>
       <c r="D33" t="n">
-        <v>446.8706367604124</v>
+        <v>57.48185395835087</v>
       </c>
       <c r="E33" t="n">
-        <v>287.6331817549569</v>
+        <v>54.03718668914269</v>
       </c>
       <c r="F33" t="n">
-        <v>273.5464640359322</v>
+        <v>54.03718668914269</v>
       </c>
       <c r="G33" t="n">
-        <v>135.0843720184813</v>
+        <v>54.03718668914269</v>
       </c>
       <c r="H33" t="n">
-        <v>135.0843720184813</v>
+        <v>54.03718668914269</v>
       </c>
       <c r="I33" t="n">
         <v>54.03718668914269</v>
@@ -6801,28 +6801,28 @@
         <v>1980.689779919961</v>
       </c>
       <c r="R33" t="n">
-        <v>1980.689779919961</v>
+        <v>1896.20529437399</v>
       </c>
       <c r="S33" t="n">
-        <v>1812.264040408871</v>
+        <v>1727.7795548629</v>
       </c>
       <c r="T33" t="n">
-        <v>1611.160629954212</v>
+        <v>1526.676144408241</v>
       </c>
       <c r="U33" t="n">
-        <v>1382.954691519544</v>
+        <v>1298.470205973573</v>
       </c>
       <c r="V33" t="n">
-        <v>1147.802583287801</v>
+        <v>1063.31809774183</v>
       </c>
       <c r="W33" t="n">
-        <v>893.5652265595995</v>
+        <v>964.6964288912839</v>
       </c>
       <c r="X33" t="n">
-        <v>685.7137263540667</v>
+        <v>756.844928685751</v>
       </c>
       <c r="Y33" t="n">
-        <v>477.9534275891128</v>
+        <v>549.0846299207972</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.63422125820138</v>
+        <v>73.63422125820152</v>
       </c>
       <c r="C34" t="n">
-        <v>60.49082606654183</v>
+        <v>60.49082606654194</v>
       </c>
       <c r="D34" t="n">
-        <v>66.05401903880762</v>
+        <v>66.05401903880771</v>
       </c>
       <c r="E34" t="n">
-        <v>73.77690727900017</v>
+        <v>73.77690727900023</v>
       </c>
       <c r="F34" t="n">
-        <v>73.77690727900017</v>
+        <v>73.77690727900023</v>
       </c>
       <c r="G34" t="n">
-        <v>60.10713413257478</v>
+        <v>60.1071341325748</v>
       </c>
       <c r="H34" t="n">
         <v>54.03718668914269</v>
@@ -6859,49 +6859,49 @@
         <v>54.03718668914269</v>
       </c>
       <c r="K34" t="n">
-        <v>159.4492946920961</v>
+        <v>57.64492039367639</v>
       </c>
       <c r="L34" t="n">
-        <v>219.5923863376204</v>
+        <v>270.4805232994966</v>
       </c>
       <c r="M34" t="n">
-        <v>293.3939668886404</v>
+        <v>446.0864781489369</v>
       </c>
       <c r="N34" t="n">
-        <v>523.5678384909495</v>
+        <v>523.56783849095</v>
       </c>
       <c r="O34" t="n">
-        <v>579.1181199738792</v>
+        <v>579.1181199738796</v>
       </c>
       <c r="P34" t="n">
-        <v>755.8228114216112</v>
+        <v>755.8228114216116</v>
       </c>
       <c r="Q34" t="n">
-        <v>755.8228114216112</v>
+        <v>755.8228114216116</v>
       </c>
       <c r="R34" t="n">
-        <v>742.6615403057556</v>
+        <v>742.6615403057559</v>
       </c>
       <c r="S34" t="n">
-        <v>676.1012493104664</v>
+        <v>676.1012493104668</v>
       </c>
       <c r="T34" t="n">
-        <v>602.6085997892025</v>
+        <v>602.6085997892028</v>
       </c>
       <c r="U34" t="n">
-        <v>469.2025356915993</v>
+        <v>469.2025356915996</v>
       </c>
       <c r="V34" t="n">
-        <v>370.3108352219597</v>
+        <v>370.31083522196</v>
       </c>
       <c r="W34" t="n">
-        <v>236.6864529212465</v>
+        <v>236.6864529212467</v>
       </c>
       <c r="X34" t="n">
-        <v>164.4896897594765</v>
+        <v>164.4896897594767</v>
       </c>
       <c r="Y34" t="n">
-        <v>99.48989835219373</v>
+        <v>99.4898983521939</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1090.014198100787</v>
+        <v>1090.014198100786</v>
       </c>
       <c r="C35" t="n">
-        <v>926.0622024415832</v>
+        <v>926.0622024415827</v>
       </c>
       <c r="D35" t="n">
-        <v>772.8070251160406</v>
+        <v>772.8070251160401</v>
       </c>
       <c r="E35" t="n">
-        <v>592.0292937990042</v>
+        <v>592.0292937990038</v>
       </c>
       <c r="F35" t="n">
-        <v>386.0539102906046</v>
+        <v>386.0539102906041</v>
       </c>
       <c r="G35" t="n">
         <v>172.0689780472011</v>
@@ -6932,31 +6932,31 @@
         <v>39.31944067817997</v>
       </c>
       <c r="I35" t="n">
-        <v>50.85721229328443</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="J35" t="n">
-        <v>281.7387010832226</v>
+        <v>69.27011756040625</v>
       </c>
       <c r="K35" t="n">
-        <v>648.3026179730286</v>
+        <v>234.9032225425004</v>
       </c>
       <c r="L35" t="n">
-        <v>906.0617585265576</v>
+        <v>492.6623630960293</v>
       </c>
       <c r="M35" t="n">
-        <v>1209.475012734665</v>
+        <v>979.2404414885063</v>
       </c>
       <c r="N35" t="n">
-        <v>1503.165813058838</v>
+        <v>1272.931241812679</v>
       </c>
       <c r="O35" t="n">
-        <v>1735.302069883701</v>
+        <v>1705.998310545255</v>
       </c>
       <c r="P35" t="n">
-        <v>1895.750611514074</v>
+        <v>1866.446852175628</v>
       </c>
       <c r="Q35" t="n">
-        <v>1965.972033908998</v>
+        <v>1909.715265134459</v>
       </c>
       <c r="R35" t="n">
         <v>1965.972033908998</v>
@@ -6968,19 +6968,19 @@
         <v>1947.83186032397</v>
       </c>
       <c r="U35" t="n">
-        <v>1898.998064609446</v>
+        <v>1898.998064609445</v>
       </c>
       <c r="V35" t="n">
         <v>1772.945698547083</v>
       </c>
       <c r="W35" t="n">
-        <v>1625.187564558177</v>
+        <v>1625.187564558176</v>
       </c>
       <c r="X35" t="n">
-        <v>1456.732327578305</v>
+        <v>1456.732327578304</v>
       </c>
       <c r="Y35" t="n">
-        <v>1271.603516883701</v>
+        <v>1271.6035168837</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>620.5569015745268</v>
+        <v>806.9409846165796</v>
       </c>
       <c r="C36" t="n">
-        <v>446.1038722933998</v>
+        <v>632.4879553354526</v>
       </c>
       <c r="D36" t="n">
-        <v>297.1694626321486</v>
+        <v>483.5535456742013</v>
       </c>
       <c r="E36" t="n">
-        <v>137.9320076266931</v>
+        <v>324.3160906687458</v>
       </c>
       <c r="F36" t="n">
-        <v>137.9320076266931</v>
+        <v>177.7815326956308</v>
       </c>
       <c r="G36" t="n">
         <v>39.31944067817997</v>
@@ -7014,16 +7014,16 @@
         <v>39.31944067817997</v>
       </c>
       <c r="J36" t="n">
-        <v>63.46447896355323</v>
+        <v>63.46447896355312</v>
       </c>
       <c r="K36" t="n">
-        <v>231.3530382731819</v>
+        <v>231.3530382731817</v>
       </c>
       <c r="L36" t="n">
-        <v>518.5043212868694</v>
+        <v>518.5043212868693</v>
       </c>
       <c r="M36" t="n">
-        <v>905.5755461531271</v>
+        <v>905.575546153127</v>
       </c>
       <c r="N36" t="n">
         <v>1318.598407962676</v>
@@ -7041,25 +7041,25 @@
         <v>1881.487548363027</v>
       </c>
       <c r="S36" t="n">
-        <v>1713.061808851937</v>
+        <v>1731.230554873922</v>
       </c>
       <c r="T36" t="n">
-        <v>1511.958398397278</v>
+        <v>1530.127144419263</v>
       </c>
       <c r="U36" t="n">
-        <v>1283.75245996261</v>
+        <v>1301.921205984595</v>
       </c>
       <c r="V36" t="n">
-        <v>1048.600351730867</v>
+        <v>1066.769097752852</v>
       </c>
       <c r="W36" t="n">
-        <v>794.3629950026657</v>
+        <v>812.5317410246505</v>
       </c>
       <c r="X36" t="n">
-        <v>791.5220160783408</v>
+        <v>809.6907621003256</v>
       </c>
       <c r="Y36" t="n">
-        <v>788.7722385945948</v>
+        <v>806.9409846165796</v>
       </c>
     </row>
     <row r="37">
@@ -7081,31 +7081,31 @@
         <v>39.31944067817997</v>
       </c>
       <c r="F37" t="n">
-        <v>43.3707199035612</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="G37" t="n">
-        <v>43.3707199035612</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="H37" t="n">
-        <v>43.3707199035612</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="I37" t="n">
-        <v>43.3707199035612</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="J37" t="n">
-        <v>43.3707199035612</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97845360809491</v>
+        <v>42.92717438271367</v>
       </c>
       <c r="L37" t="n">
-        <v>107.1215452536191</v>
+        <v>103.0702660282379</v>
       </c>
       <c r="M37" t="n">
-        <v>180.9231258046391</v>
+        <v>176.8718465792579</v>
       </c>
       <c r="N37" t="n">
-        <v>258.4044861466522</v>
+        <v>254.353206921271</v>
       </c>
       <c r="O37" t="n">
         <v>313.9547676295819</v>
@@ -7151,49 +7151,49 @@
         <v>1090.014198100787</v>
       </c>
       <c r="C38" t="n">
-        <v>926.0622024415828</v>
+        <v>926.0622024415831</v>
       </c>
       <c r="D38" t="n">
-        <v>772.8070251160402</v>
+        <v>772.8070251160404</v>
       </c>
       <c r="E38" t="n">
-        <v>592.0292937990039</v>
+        <v>592.0292937990041</v>
       </c>
       <c r="F38" t="n">
-        <v>386.0539102906042</v>
+        <v>386.0539102906046</v>
       </c>
       <c r="G38" t="n">
-        <v>172.0689780472007</v>
+        <v>172.0689780472011</v>
       </c>
       <c r="H38" t="n">
-        <v>39.31944067817957</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="I38" t="n">
-        <v>39.31944067817997</v>
+        <v>50.85721229328446</v>
       </c>
       <c r="J38" t="n">
-        <v>69.27011756040625</v>
+        <v>80.80788917551075</v>
       </c>
       <c r="K38" t="n">
-        <v>435.8340344502122</v>
+        <v>246.4409941576049</v>
       </c>
       <c r="L38" t="n">
-        <v>732.0839560549381</v>
+        <v>504.2001347111338</v>
       </c>
       <c r="M38" t="n">
-        <v>1035.497210263045</v>
+        <v>807.6133889192412</v>
       </c>
       <c r="N38" t="n">
-        <v>1329.188010587218</v>
+        <v>1294.191467311718</v>
       </c>
       <c r="O38" t="n">
-        <v>1561.324267412082</v>
+        <v>1526.327724136582</v>
       </c>
       <c r="P38" t="n">
-        <v>1922.703620950167</v>
+        <v>1887.707077674667</v>
       </c>
       <c r="Q38" t="n">
-        <v>1965.972033908998</v>
+        <v>1930.975490633498</v>
       </c>
       <c r="R38" t="n">
         <v>1965.972033908998</v>
@@ -7208,7 +7208,7 @@
         <v>1898.998064609445</v>
       </c>
       <c r="V38" t="n">
-        <v>1772.945698547083</v>
+        <v>1772.945698547082</v>
       </c>
       <c r="W38" t="n">
         <v>1625.187564558176</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>869.349613314017</v>
+        <v>668.4788925991288</v>
       </c>
       <c r="C39" t="n">
-        <v>694.89658403289</v>
+        <v>494.0258633180018</v>
       </c>
       <c r="D39" t="n">
-        <v>594.3272823777893</v>
+        <v>345.0914536567505</v>
       </c>
       <c r="E39" t="n">
-        <v>435.0898273723337</v>
+        <v>185.853998651295</v>
       </c>
       <c r="F39" t="n">
-        <v>288.5552693992187</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="G39" t="n">
-        <v>150.0931773817678</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="H39" t="n">
         <v>39.31944067817997</v>
@@ -7260,7 +7260,7 @@
         <v>518.5043212868693</v>
       </c>
       <c r="M39" t="n">
-        <v>905.575546153127</v>
+        <v>905.5755461531269</v>
       </c>
       <c r="N39" t="n">
         <v>1318.598407962676</v>
@@ -7278,25 +7278,25 @@
         <v>1965.972033908998</v>
       </c>
       <c r="S39" t="n">
-        <v>1797.546294397908</v>
+        <v>1965.972033908998</v>
       </c>
       <c r="T39" t="n">
-        <v>1797.546294397908</v>
+        <v>1965.972033908998</v>
       </c>
       <c r="U39" t="n">
-        <v>1569.34035596324</v>
+        <v>1737.76609547433</v>
       </c>
       <c r="V39" t="n">
-        <v>1334.188247731498</v>
+        <v>1502.613987242587</v>
       </c>
       <c r="W39" t="n">
-        <v>1284.961412284504</v>
+        <v>1248.376630514386</v>
       </c>
       <c r="X39" t="n">
-        <v>1077.109912078971</v>
+        <v>1044.454528384151</v>
       </c>
       <c r="Y39" t="n">
-        <v>869.349613314017</v>
+        <v>836.6942296191969</v>
       </c>
     </row>
     <row r="40">
@@ -7324,55 +7324,55 @@
         <v>39.31944067817997</v>
       </c>
       <c r="H40" t="n">
-        <v>43.3707199035612</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="I40" t="n">
-        <v>43.3707199035612</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="J40" t="n">
-        <v>43.3707199035612</v>
+        <v>43.37071990356103</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97845360809491</v>
+        <v>46.97845360809474</v>
       </c>
       <c r="L40" t="n">
-        <v>107.1215452536191</v>
+        <v>107.121545253619</v>
       </c>
       <c r="M40" t="n">
-        <v>180.9231258046391</v>
+        <v>180.9231258046389</v>
       </c>
       <c r="N40" t="n">
-        <v>258.4044861466522</v>
+        <v>258.4044861466521</v>
       </c>
       <c r="O40" t="n">
-        <v>313.9547676295819</v>
+        <v>313.9547676295817</v>
       </c>
       <c r="P40" t="n">
-        <v>337.9669478170179</v>
+        <v>337.9669478170177</v>
       </c>
       <c r="Q40" t="n">
-        <v>337.9669478170179</v>
+        <v>337.9669478170177</v>
       </c>
       <c r="R40" t="n">
-        <v>337.9669478170179</v>
+        <v>337.9669478170177</v>
       </c>
       <c r="S40" t="n">
-        <v>320.6243903666893</v>
+        <v>320.6243903666892</v>
       </c>
       <c r="T40" t="n">
-        <v>296.349474390386</v>
+        <v>296.3494743903858</v>
       </c>
       <c r="U40" t="n">
-        <v>212.1611438377433</v>
+        <v>212.1611438377432</v>
       </c>
       <c r="V40" t="n">
         <v>162.4871769130643</v>
       </c>
       <c r="W40" t="n">
-        <v>78.08052815731162</v>
+        <v>78.08052815731156</v>
       </c>
       <c r="X40" t="n">
-        <v>55.10149854050218</v>
+        <v>55.10149854050215</v>
       </c>
       <c r="Y40" t="n">
         <v>39.31944067817997</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1090.014198100787</v>
+        <v>1090.014198100786</v>
       </c>
       <c r="C41" t="n">
-        <v>926.0622024415832</v>
+        <v>926.0622024415826</v>
       </c>
       <c r="D41" t="n">
-        <v>772.8070251160406</v>
+        <v>772.80702511604</v>
       </c>
       <c r="E41" t="n">
-        <v>592.0292937990042</v>
+        <v>592.0292937990039</v>
       </c>
       <c r="F41" t="n">
-        <v>386.0539102906046</v>
+        <v>386.0539102906043</v>
       </c>
       <c r="G41" t="n">
         <v>172.0689780472012</v>
@@ -7409,25 +7409,25 @@
         <v>39.31944067817997</v>
       </c>
       <c r="J41" t="n">
-        <v>270.2009294681181</v>
+        <v>69.27011756040625</v>
       </c>
       <c r="K41" t="n">
-        <v>435.8340344502122</v>
+        <v>234.9032225425004</v>
       </c>
       <c r="L41" t="n">
-        <v>693.5931750037412</v>
+        <v>531.1531441472263</v>
       </c>
       <c r="M41" t="n">
-        <v>997.0064292118485</v>
+        <v>834.5663983553336</v>
       </c>
       <c r="N41" t="n">
-        <v>1329.188010587218</v>
+        <v>1128.257198679506</v>
       </c>
       <c r="O41" t="n">
-        <v>1762.255079319794</v>
+        <v>1561.324267412082</v>
       </c>
       <c r="P41" t="n">
-        <v>1922.703620950167</v>
+        <v>1721.772809042455</v>
       </c>
       <c r="Q41" t="n">
         <v>1965.972033908998</v>
@@ -7442,19 +7442,19 @@
         <v>1947.83186032397</v>
       </c>
       <c r="U41" t="n">
-        <v>1898.998064609446</v>
+        <v>1898.998064609445</v>
       </c>
       <c r="V41" t="n">
-        <v>1772.945698547083</v>
+        <v>1772.945698547082</v>
       </c>
       <c r="W41" t="n">
-        <v>1625.187564558177</v>
+        <v>1625.187564558176</v>
       </c>
       <c r="X41" t="n">
-        <v>1456.732327578305</v>
+        <v>1456.732327578304</v>
       </c>
       <c r="Y41" t="n">
-        <v>1271.603516883701</v>
+        <v>1271.6035168837</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>836.6719423704478</v>
+        <v>473.2505003299971</v>
       </c>
       <c r="C42" t="n">
-        <v>743.2616920390406</v>
+        <v>473.2505003299971</v>
       </c>
       <c r="D42" t="n">
-        <v>594.3272823777893</v>
+        <v>324.3160906687458</v>
       </c>
       <c r="E42" t="n">
-        <v>435.0898273723337</v>
+        <v>324.3160906687458</v>
       </c>
       <c r="F42" t="n">
-        <v>288.5552693992187</v>
+        <v>177.7815326956308</v>
       </c>
       <c r="G42" t="n">
-        <v>150.0931773817678</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="H42" t="n">
         <v>39.31944067817997</v>
@@ -7488,16 +7488,16 @@
         <v>39.31944067817997</v>
       </c>
       <c r="J42" t="n">
-        <v>63.46447896355323</v>
+        <v>63.46447896355322</v>
       </c>
       <c r="K42" t="n">
-        <v>231.3530382731819</v>
+        <v>231.3530382731818</v>
       </c>
       <c r="L42" t="n">
-        <v>518.5043212868694</v>
+        <v>518.5043212868693</v>
       </c>
       <c r="M42" t="n">
-        <v>905.5755461531271</v>
+        <v>905.5755461531269</v>
       </c>
       <c r="N42" t="n">
         <v>1318.598407962676</v>
@@ -7512,28 +7512,28 @@
         <v>1965.972033908998</v>
       </c>
       <c r="R42" t="n">
-        <v>1965.972033908998</v>
+        <v>1939.191668399706</v>
       </c>
       <c r="S42" t="n">
-        <v>1965.972033908998</v>
+        <v>1770.765928888616</v>
       </c>
       <c r="T42" t="n">
-        <v>1764.868623454339</v>
+        <v>1569.662518433956</v>
       </c>
       <c r="U42" t="n">
-        <v>1741.673206300879</v>
+        <v>1341.456579999288</v>
       </c>
       <c r="V42" t="n">
-        <v>1506.521098069136</v>
+        <v>1106.304471767546</v>
       </c>
       <c r="W42" t="n">
-        <v>1252.283741340935</v>
+        <v>852.067115039344</v>
       </c>
       <c r="X42" t="n">
-        <v>1044.432241135402</v>
+        <v>849.226136115019</v>
       </c>
       <c r="Y42" t="n">
-        <v>836.6719423704478</v>
+        <v>641.4658373500652</v>
       </c>
     </row>
     <row r="43">
@@ -7546,40 +7546,40 @@
         <v>39.31944067817997</v>
       </c>
       <c r="C43" t="n">
-        <v>43.37071990356149</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="D43" t="n">
-        <v>43.37071990356149</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="E43" t="n">
-        <v>43.37071990356149</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="F43" t="n">
-        <v>43.37071990356149</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="G43" t="n">
-        <v>43.37071990356149</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="H43" t="n">
-        <v>43.37071990356149</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="I43" t="n">
-        <v>43.37071990356149</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="J43" t="n">
-        <v>43.37071990356149</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97845360809519</v>
+        <v>42.92717438271367</v>
       </c>
       <c r="L43" t="n">
-        <v>107.1215452536194</v>
+        <v>103.0702660282379</v>
       </c>
       <c r="M43" t="n">
-        <v>180.9231258046394</v>
+        <v>176.8718465792579</v>
       </c>
       <c r="N43" t="n">
-        <v>258.4044861466525</v>
+        <v>254.353206921271</v>
       </c>
       <c r="O43" t="n">
         <v>313.9547676295822</v>
@@ -7634,10 +7634,10 @@
         <v>592.0292937990042</v>
       </c>
       <c r="F44" t="n">
-        <v>386.0539102906045</v>
+        <v>386.0539102906048</v>
       </c>
       <c r="G44" t="n">
-        <v>172.0689780472012</v>
+        <v>172.0689780472008</v>
       </c>
       <c r="H44" t="n">
         <v>39.31944067817997</v>
@@ -7652,25 +7652,25 @@
         <v>234.9032225425004</v>
       </c>
       <c r="L44" t="n">
-        <v>556.9626657099759</v>
+        <v>492.6623630960293</v>
       </c>
       <c r="M44" t="n">
-        <v>1043.540744102453</v>
+        <v>979.2404414885063</v>
       </c>
       <c r="N44" t="n">
-        <v>1530.11882249493</v>
+        <v>1272.931241812679</v>
       </c>
       <c r="O44" t="n">
-        <v>1762.255079319794</v>
+        <v>1556.105809717832</v>
       </c>
       <c r="P44" t="n">
-        <v>1922.703620950167</v>
+        <v>1716.554351348205</v>
       </c>
       <c r="Q44" t="n">
-        <v>1965.972033908998</v>
+        <v>1960.753576214749</v>
       </c>
       <c r="R44" t="n">
-        <v>1965.972033908998</v>
+        <v>1960.753576214749</v>
       </c>
       <c r="S44" t="n">
         <v>1965.972033908998</v>
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>824.3088773683792</v>
+        <v>213.772469959307</v>
       </c>
       <c r="C45" t="n">
-        <v>824.3088773683792</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="D45" t="n">
-        <v>675.3744677071279</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="E45" t="n">
-        <v>516.1370127016723</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="F45" t="n">
-        <v>369.6024547285573</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="G45" t="n">
-        <v>231.1403627111065</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="H45" t="n">
-        <v>120.3666260075186</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="I45" t="n">
         <v>39.31944067817997</v>
       </c>
       <c r="J45" t="n">
-        <v>63.46447896355318</v>
+        <v>63.46447896355312</v>
       </c>
       <c r="K45" t="n">
-        <v>231.3530382731818</v>
+        <v>231.3530382731817</v>
       </c>
       <c r="L45" t="n">
         <v>518.5043212868693</v>
@@ -7749,28 +7749,28 @@
         <v>1965.972033908998</v>
       </c>
       <c r="R45" t="n">
-        <v>1965.972033908998</v>
+        <v>1881.487548363027</v>
       </c>
       <c r="S45" t="n">
-        <v>1797.546294397908</v>
+        <v>1713.061808851937</v>
       </c>
       <c r="T45" t="n">
-        <v>1596.442883943249</v>
+        <v>1511.958398397278</v>
       </c>
       <c r="U45" t="n">
-        <v>1368.236945508581</v>
+        <v>1283.75245996261</v>
       </c>
       <c r="V45" t="n">
-        <v>1252.35232752472</v>
+        <v>1048.600351730867</v>
       </c>
       <c r="W45" t="n">
-        <v>1203.125492077726</v>
+        <v>794.3629950026657</v>
       </c>
       <c r="X45" t="n">
-        <v>1200.284513153401</v>
+        <v>586.5114947971329</v>
       </c>
       <c r="Y45" t="n">
-        <v>992.5242143884473</v>
+        <v>378.7511960321789</v>
       </c>
     </row>
     <row r="46">
@@ -7801,52 +7801,52 @@
         <v>39.31944067817997</v>
       </c>
       <c r="I46" t="n">
-        <v>43.37071990356149</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="J46" t="n">
-        <v>43.37071990356149</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97845360809519</v>
+        <v>46.97845360809474</v>
       </c>
       <c r="L46" t="n">
-        <v>107.1215452536194</v>
+        <v>107.121545253619</v>
       </c>
       <c r="M46" t="n">
-        <v>180.9231258046394</v>
+        <v>180.9231258046389</v>
       </c>
       <c r="N46" t="n">
-        <v>258.4044861466525</v>
+        <v>258.4044861466521</v>
       </c>
       <c r="O46" t="n">
-        <v>313.9547676295822</v>
+        <v>313.9547676295817</v>
       </c>
       <c r="P46" t="n">
-        <v>337.9669478170182</v>
+        <v>337.9669478170177</v>
       </c>
       <c r="Q46" t="n">
-        <v>337.9669478170182</v>
+        <v>337.9669478170177</v>
       </c>
       <c r="R46" t="n">
-        <v>337.9669478170182</v>
+        <v>337.9669478170177</v>
       </c>
       <c r="S46" t="n">
-        <v>320.6243903666896</v>
+        <v>320.6243903666892</v>
       </c>
       <c r="T46" t="n">
-        <v>296.3494743903861</v>
+        <v>296.3494743903858</v>
       </c>
       <c r="U46" t="n">
-        <v>212.1611438377435</v>
+        <v>212.1611438377432</v>
       </c>
       <c r="V46" t="n">
-        <v>162.4871769130644</v>
+        <v>162.4871769130643</v>
       </c>
       <c r="W46" t="n">
-        <v>78.08052815731168</v>
+        <v>78.08052815731156</v>
       </c>
       <c r="X46" t="n">
-        <v>55.10149854050221</v>
+        <v>55.10149854050215</v>
       </c>
       <c r="Y46" t="n">
         <v>39.31944067817997</v>
@@ -8453,10 +8453,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M8" t="n">
         <v>245.6489707424078</v>
@@ -8465,10 +8465,10 @@
         <v>244.097508686872</v>
       </c>
       <c r="O8" t="n">
-        <v>245.4009489368218</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>246.5357332704046</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>153.144176489494</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>153.2388248701553</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>146.6444495984684</v>
       </c>
       <c r="O9" t="n">
-        <v>157.2806895347256</v>
+        <v>157.8989819595795</v>
       </c>
       <c r="P9" t="n">
-        <v>149.2771449294653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>155.2845116011566</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>101.7021077794257</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>94.8808336695194</v>
       </c>
       <c r="L12" t="n">
-        <v>80.78854427953237</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>348.9930544089822</v>
+        <v>356.9706448816978</v>
       </c>
       <c r="N12" t="n">
         <v>441.305775752316</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>106.0212271432491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>101.7021077794257</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>94.8808336695194</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>453.8822398489553</v>
+        <v>453.8822398489552</v>
       </c>
       <c r="N15" t="n">
-        <v>441.3057757523161</v>
+        <v>281.6562804203736</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>117.4951130800797</v>
+        <v>83.17127750797974</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,25 +9243,25 @@
         <v>101.7021077794257</v>
       </c>
       <c r="K18" t="n">
-        <v>94.8808336695194</v>
+        <v>129.2046692416192</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>453.8822398489553</v>
+        <v>453.8822398489552</v>
       </c>
       <c r="N18" t="n">
-        <v>344.3941807850586</v>
+        <v>441.305775752316</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>83.17127750797974</v>
       </c>
       <c r="Q18" t="n">
-        <v>106.0212271432491</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>159.5760515726056</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>80.78854427953237</v>
       </c>
       <c r="M21" t="n">
-        <v>453.8822398489553</v>
+        <v>453.8822398489552</v>
       </c>
       <c r="N21" t="n">
-        <v>62.14756443491862</v>
+        <v>441.305775752316</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>194.2945125893467</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>94.8808336695194</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>438.0994647024528</v>
+        <v>453.8822398489552</v>
       </c>
       <c r="N24" t="n">
-        <v>62.14756443491862</v>
+        <v>441.305775752316</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>168.5057361558889</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034591</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>318.4627686399373</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.4065958057407</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>233.9456459132677</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>275.5487998839716</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>283.4782531316254</v>
       </c>
       <c r="H11" t="n">
         <v>203.0552122059869</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.97885544792413</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>89.59194205983398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>189.3696297436083</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>165.9460121445873</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.9106927983137</v>
       </c>
     </row>
     <row r="12">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>233.9456459132676</v>
+        <v>233.9456459132677</v>
       </c>
       <c r="D14" t="n">
-        <v>223.355795762943</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>209.2549904447952</v>
+        <v>256.7454054477241</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>283.4782531316254</v>
       </c>
       <c r="H14" t="n">
-        <v>203.0552122059868</v>
+        <v>203.0552122059869</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.97885544792413</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>89.59194205983393</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>119.978627968035</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>196.425012612395</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>217.9137228596731</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>238.4038548207292</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-2.092664438723333e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>804313.7791114103</v>
+        <v>804313.7791114101</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>923198.046717634</v>
+        <v>923198.0467176338</v>
       </c>
     </row>
     <row r="9">
@@ -26320,40 +26320,40 @@
         <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>526618.1266935451</v>
+        <v>526618.1266935449</v>
       </c>
       <c r="F2" t="n">
-        <v>526618.1266935447</v>
+        <v>526618.1266935449</v>
       </c>
       <c r="G2" t="n">
+        <v>615781.3273982122</v>
+      </c>
+      <c r="H2" t="n">
         <v>615781.3273982125</v>
       </c>
-      <c r="H2" t="n">
-        <v>615781.3273982124</v>
-      </c>
       <c r="I2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="J2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.327398212</v>
       </c>
       <c r="K2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="L2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.327398212</v>
       </c>
       <c r="M2" t="n">
         <v>615781.3273982122</v>
       </c>
       <c r="N2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="O2" t="n">
-        <v>615781.3273982119</v>
+        <v>615781.3273982118</v>
       </c>
       <c r="P2" t="n">
-        <v>615781.3273982119</v>
+        <v>615781.3273982129</v>
       </c>
     </row>
     <row r="3">
@@ -26375,13 +26375,13 @@
         <v>313072.4135187424</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>85172.54343310972</v>
+        <v>85172.54343310984</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>88339.84283304232</v>
+        <v>88339.84283304242</v>
       </c>
       <c r="M3" t="n">
-        <v>83808.16974957833</v>
+        <v>83808.16974957834</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35048.04505406551</v>
+        <v>35048.04505406549</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>409397.0283363865</v>
       </c>
       <c r="D4" t="n">
-        <v>408123.0807897231</v>
+        <v>408123.0807897232</v>
       </c>
       <c r="E4" t="n">
-        <v>268117.3973599441</v>
+        <v>268117.397359944</v>
       </c>
       <c r="F4" t="n">
-        <v>268117.3973599441</v>
+        <v>268117.397359944</v>
       </c>
       <c r="G4" t="n">
         <v>335734.8797323604</v>
@@ -26482,34 +26482,34 @@
         <v>36789.76969573052</v>
       </c>
       <c r="G5" t="n">
-        <v>45740.23288807814</v>
+        <v>45740.23288807815</v>
       </c>
       <c r="H5" t="n">
         <v>45740.23288807815</v>
       </c>
       <c r="I5" t="n">
-        <v>45740.23288807815</v>
+        <v>45740.23288807814</v>
       </c>
       <c r="J5" t="n">
         <v>57328.5993571975</v>
       </c>
       <c r="K5" t="n">
-        <v>57328.5993571975</v>
+        <v>57328.59935719749</v>
       </c>
       <c r="L5" t="n">
-        <v>56731.03253284346</v>
+        <v>56731.03253284344</v>
       </c>
       <c r="M5" t="n">
         <v>49641.85434948915</v>
       </c>
       <c r="N5" t="n">
-        <v>49641.85434948915</v>
+        <v>49641.85434948916</v>
       </c>
       <c r="O5" t="n">
         <v>49641.85434948915</v>
       </c>
       <c r="P5" t="n">
-        <v>49641.85434948915</v>
+        <v>49641.85434948916</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>171432.6257013923</v>
+        <v>171428.2121235242</v>
       </c>
       <c r="C6" t="n">
-        <v>171432.6257013924</v>
+        <v>171428.2121235243</v>
       </c>
       <c r="D6" t="n">
-        <v>168346.7508132428</v>
+        <v>168346.7508132427</v>
       </c>
       <c r="E6" t="n">
-        <v>-91361.45388087181</v>
+        <v>-91658.66454988754</v>
       </c>
       <c r="F6" t="n">
-        <v>221710.9596378701</v>
+        <v>221413.7489688548</v>
       </c>
       <c r="G6" t="n">
-        <v>149133.6713446642</v>
+        <v>149133.6713446638</v>
       </c>
       <c r="H6" t="n">
         <v>234306.2147777739</v>
       </c>
       <c r="I6" t="n">
-        <v>234306.2147777739</v>
+        <v>234306.2147777737</v>
       </c>
       <c r="J6" t="n">
-        <v>109594.2323693719</v>
+        <v>109594.2323693717</v>
       </c>
       <c r="K6" t="n">
-        <v>226172.996762094</v>
+        <v>226172.9967620939</v>
       </c>
       <c r="L6" t="n">
         <v>138507.6974573856</v>
@@ -26555,13 +26555,13 @@
         <v>151003.9403961932</v>
       </c>
       <c r="N6" t="n">
-        <v>234812.1101457718</v>
+        <v>234812.1101457721</v>
       </c>
       <c r="O6" t="n">
-        <v>199764.0650917059</v>
+        <v>199764.0650917057</v>
       </c>
       <c r="P6" t="n">
-        <v>234812.1101457714</v>
+        <v>234812.1101457723</v>
       </c>
     </row>
   </sheetData>
@@ -26698,10 +26698,10 @@
         <v>131.3272458577399</v>
       </c>
       <c r="G2" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="H2" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="I2" t="n">
         <v>237.7929251491271</v>
@@ -26713,7 +26713,7 @@
         <v>150.2757356089691</v>
       </c>
       <c r="L2" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="M2" t="n">
         <v>202.9604160683958</v>
@@ -26814,10 +26814,10 @@
         <v>690.7675711294186</v>
       </c>
       <c r="K4" t="n">
-        <v>690.7675711294187</v>
+        <v>690.7675711294186</v>
       </c>
       <c r="L4" t="n">
-        <v>675.4648336142836</v>
+        <v>675.4648336142835</v>
       </c>
       <c r="M4" t="n">
         <v>491.4930084772495</v>
@@ -26917,13 +26917,13 @@
         <v>131.3272458577399</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>106.4656792913871</v>
+        <v>106.4656792913873</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>110.4248035413029</v>
+        <v>110.424803541303</v>
       </c>
       <c r="M2" t="n">
-        <v>48.72555620951098</v>
+        <v>48.72555620951096</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>43.81005631758188</v>
+        <v>43.81005631758185</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.6093598120211</v>
+        <v>311.6093598120212</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>179.8836486652282</v>
+        <v>179.8836486652283</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,13 +27154,13 @@
         <v>131.3272458577399</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>106.4656792913871</v>
+        <v>106.4656792913873</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>348.0804361590634</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>5.346683892993011</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>193.7173320711103</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>236.0429153927014</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>354.428363163334</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>370.9352011409185</v>
       </c>
     </row>
     <row r="9">
@@ -27932,28 +27932,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>159.2298477849848</v>
       </c>
       <c r="D9" t="n">
-        <v>134.7130056875657</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>129.7664748782488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>122.0407796480756</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,10 +27983,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>190.4702476883424</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>6.966754310747802</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,19 +28050,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>161.9906538620344</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>210.5379468336413</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>212.6428519131464</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>210.4069178739021</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>207.8274428838704</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28169,25 +28169,25 @@
         <v>131.3272458577399</v>
       </c>
       <c r="C12" t="n">
-        <v>82.0350604265452</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="E12" t="n">
         <v>131.3272458577399</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>23.45959347168747</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.23671347604525</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,22 +28217,22 @@
         <v>83.63964069051124</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>131.3272458577399</v>
       </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
       <c r="U12" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>131.3272458577399</v>
@@ -28275,7 +28275,7 @@
         <v>131.3272458577399</v>
       </c>
       <c r="L13" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>131.3272458577399</v>
@@ -28287,10 +28287,10 @@
         <v>131.3272458577399</v>
       </c>
       <c r="P13" t="n">
-        <v>60.02391959567583</v>
+        <v>127.5090622712978</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.48514267562186</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="R13" t="n">
         <v>131.3272458577399</v>
@@ -28348,7 +28348,7 @@
         <v>131.3272458577399</v>
       </c>
       <c r="J14" t="n">
-        <v>4.085620730620576e-13</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28406,7 +28406,7 @@
         <v>131.3272458577399</v>
       </c>
       <c r="C15" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>131.3272458577399</v>
@@ -28415,16 +28415,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>107.0992341621991</v>
       </c>
       <c r="H15" t="n">
         <v>109.665999336552</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.23671347604525</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="T15" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>131.3272458577399</v>
       </c>
       <c r="V15" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>131.3272458577399</v>
       </c>
       <c r="X15" t="n">
-        <v>56.0087017805036</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28506,7 +28506,7 @@
         <v>131.3272458577399</v>
       </c>
       <c r="J16" t="n">
-        <v>77.58996333455183</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="K16" t="n">
         <v>131.3272458577399</v>
@@ -28515,19 +28515,19 @@
         <v>131.3272458577399</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>127.5090622712978</v>
+      </c>
+      <c r="O16" t="n">
         <v>131.3272458577399</v>
-      </c>
-      <c r="N16" t="n">
-        <v>131.3272458577399</v>
-      </c>
-      <c r="O16" t="n">
-        <v>113.7612021188626</v>
       </c>
       <c r="P16" t="n">
         <v>131.3272458577399</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.48514267562186</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="R16" t="n">
         <v>131.3272458577399</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="C17" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="D17" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="E17" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="F17" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="G17" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="H17" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="I17" t="n">
         <v>191.306101305664</v>
@@ -28594,7 +28594,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28618,19 +28618,19 @@
         <v>220.9191879175739</v>
       </c>
       <c r="U17" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="V17" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="W17" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="X17" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
     </row>
     <row r="18">
@@ -28643,25 +28643,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>106.5748709546954</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H18" t="n">
-        <v>109.665999336552</v>
+        <v>78.22561269367776</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.23671347604525</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.63964069051124</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>166.7414821159791</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0923763501127</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28703,7 +28703,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28728,10 +28728,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>111.7934745637281</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.767935273846</v>
@@ -28770,19 +28770,19 @@
         <v>167.2645182635819</v>
       </c>
       <c r="S19" t="n">
-        <v>220.1295479442211</v>
+        <v>40.06801183844846</v>
       </c>
       <c r="T19" t="n">
         <v>226.9925828849361</v>
       </c>
       <c r="U19" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="V19" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="W19" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="C20" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="D20" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="E20" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="F20" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="G20" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="H20" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="I20" t="n">
         <v>191.306101305664</v>
@@ -28855,19 +28855,19 @@
         <v>220.9191879175739</v>
       </c>
       <c r="U20" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="V20" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="W20" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="X20" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
     </row>
     <row r="21">
@@ -28883,22 +28883,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.23671347604525</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.63964069051124</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>166.7414821159791</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0923763501127</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>205.1956207063941</v>
       </c>
       <c r="V21" t="n">
-        <v>9.365298681434723</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>237.7929251491271</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>145.191492099096</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -28968,7 +28968,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.767935273846</v>
@@ -29013,16 +29013,16 @@
         <v>226.9925828849361</v>
       </c>
       <c r="U22" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="V22" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="W22" t="n">
-        <v>237.7929251491271</v>
+        <v>237.7929251491272</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>45.64811928326446</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -29080,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-13</v>
       </c>
       <c r="R23" t="n">
         <v>118.6344583967597</v>
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>94.9946655458091</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -29132,10 +29132,10 @@
         <v>137.0774710972763</v>
       </c>
       <c r="H24" t="n">
-        <v>104.9215197556719</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.23671347604525</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.63964069051124</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29171,16 +29171,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9238790503212</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>237.7929251491271</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>67.25558675178659</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.48514267562186</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>167.2645182635819</v>
@@ -29262,7 +29262,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>38.52311724632224</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -29314,7 +29314,7 @@
         <v>150.2757356089692</v>
       </c>
       <c r="P26" t="n">
-        <v>150.2757356089692</v>
+        <v>150.2757356089689</v>
       </c>
       <c r="Q26" t="n">
         <v>150.2757356089692</v>
@@ -29357,19 +29357,19 @@
         <v>150.2757356089692</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>150.2757356089692</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>142.4445375658469</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I27" t="n">
         <v>80.23671347604525</v>
@@ -29405,10 +29405,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>99.00413124909885</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>150.2757356089692</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29417,10 +29417,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>150.2757356089692</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>150.2757356089692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29436,13 +29436,13 @@
         <v>150.2757356089692</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>150.2757356089692</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>150.2757356089692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>150.2757356089692</v>
       </c>
       <c r="G28" t="n">
         <v>150.2757356089692</v>
@@ -29451,28 +29451,28 @@
         <v>150.2757356089692</v>
       </c>
       <c r="I28" t="n">
-        <v>148.7429310009042</v>
+        <v>150.2757356089692</v>
       </c>
       <c r="J28" t="n">
-        <v>77.58996333455183</v>
+        <v>88.07005995122616</v>
       </c>
       <c r="K28" t="n">
-        <v>150.2757356089692</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>150.2757356089692</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>150.2757356089692</v>
       </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>150.2757356089692</v>
       </c>
       <c r="P28" t="n">
-        <v>22.36962436393416</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>67.48514267562186</v>
@@ -29588,25 +29588,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>144.8203907371019</v>
       </c>
       <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
         <v>150.2757356089691</v>
       </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I30" t="n">
         <v>80.23671347604525</v>
@@ -29636,25 +29636,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.63964069051124</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>15.3644905585881</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>150.2757356089691</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>150.2757356089691</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>150.2757356089691</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29673,7 +29673,7 @@
         <v>150.2757356089691</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>150.2757356089691</v>
       </c>
       <c r="E31" t="n">
         <v>150.2757356089691</v>
@@ -29691,25 +29691,25 @@
         <v>150.2757356089691</v>
       </c>
       <c r="J31" t="n">
+        <v>77.58996333455183</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>77.96523929229718</v>
+      </c>
+      <c r="O31" t="n">
         <v>150.2757356089691</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
+      <c r="P31" t="n">
         <v>150.2757356089691</v>
-      </c>
-      <c r="N31" t="n">
-        <v>150.2757356089691</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>6.93972960863648</v>
       </c>
       <c r="Q31" t="n">
         <v>150.2757356089691</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="C32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="D32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="E32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="F32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="G32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="H32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="I32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="J32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="K32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="L32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="M32" t="n">
-        <v>154.2348598588849</v>
+        <v>58.01008397395697</v>
       </c>
       <c r="N32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="O32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="P32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.01008397395775</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="R32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="S32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="T32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="U32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="V32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="W32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="X32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="Y32" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
     </row>
     <row r="33">
@@ -29825,28 +29825,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>154.2348598588849</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>154.2348598588849</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="F33" t="n">
-        <v>131.1233618515494</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H33" t="n">
         <v>109.665999336552</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.23671347604525</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.63964069051124</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29888,7 +29888,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>154.0595309988788</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29904,25 +29904,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="C34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="D34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="E34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="H34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="I34" t="n">
         <v>148.7429310009042</v>
@@ -29931,49 +29931,49 @@
         <v>77.58996333455183</v>
       </c>
       <c r="K34" t="n">
-        <v>102.8327013115351</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>102.8327013115356</v>
       </c>
       <c r="N34" t="n">
-        <v>154.2348598588849</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="Q34" t="n">
         <v>67.48514267562186</v>
       </c>
       <c r="R34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="S34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="T34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="U34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="V34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="W34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="X34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
       <c r="Y34" t="n">
-        <v>154.2348598588849</v>
+        <v>154.2348598588848</v>
       </c>
     </row>
     <row r="35">
@@ -30004,34 +30004,34 @@
         <v>202.9604160683958</v>
       </c>
       <c r="I35" t="n">
+        <v>191.306101305664</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>185.0149739236057</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>202.9604160683958</v>
       </c>
-      <c r="J35" t="n">
-        <v>202.9604160683958</v>
-      </c>
-      <c r="K35" t="n">
-        <v>202.9604160683958</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>27.22526205665886</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.6344583967597</v>
+        <v>175.4594773609406</v>
       </c>
       <c r="S35" t="n">
         <v>197.689246680265</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30074,10 +30074,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>39.45102981824836</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>109.665999336552</v>
@@ -30113,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>17.98705856176483</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30153,7 +30153,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>149.5132492606901</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.767935273846</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>4.092201237758822</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30241,22 +30241,22 @@
         <v>202.9604160683958</v>
       </c>
       <c r="I38" t="n">
-        <v>191.306101305664</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>202.9604160683958</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>38.87957681939082</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>194.8356344124287</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.6344583967597</v>
+        <v>153.9845021093856</v>
       </c>
       <c r="S38" t="n">
         <v>197.689246680265</v>
@@ -30299,13 +30299,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>47.88145692608903</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -30314,10 +30314,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I39" t="n">
         <v>80.23671347604525</v>
@@ -30350,7 +30350,7 @@
         <v>83.63964069051124</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.7414821159791</v>
       </c>
       <c r="T39" t="n">
         <v>199.0923763501127</v>
@@ -30362,10 +30362,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>202.9604160683958</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>3.890104094544739</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30396,13 +30396,13 @@
         <v>167.767935273846</v>
       </c>
       <c r="H40" t="n">
-        <v>164.3363090656414</v>
+        <v>160.2441078278826</v>
       </c>
       <c r="I40" t="n">
         <v>148.7429310009042</v>
       </c>
       <c r="J40" t="n">
-        <v>77.58996333455183</v>
+        <v>81.68216457231048</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30481,19 +30481,19 @@
         <v>191.306101305664</v>
       </c>
       <c r="J41" t="n">
-        <v>202.9604160683958</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>38.87957681939088</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>38.87957681939082</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>202.9604160683958</v>
@@ -30502,7 +30502,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="R41" t="n">
         <v>118.6344583967597</v>
@@ -30536,16 +30536,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>80.23235116022255</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I42" t="n">
         <v>80.23671347604525</v>
@@ -30584,25 +30584,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.63964069051124</v>
+        <v>57.12707883631162</v>
       </c>
       <c r="S42" t="n">
-        <v>166.7414821159791</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>202.9604160683958</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30618,7 +30618,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>171.3390223363869</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>4.092201237759113</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30724,28 +30724,28 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>64.9498006201481</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>185.0149739236057</v>
       </c>
       <c r="N44" t="n">
-        <v>194.8356344124287</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>51.55384957605006</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="R44" t="n">
         <v>118.6344583967597</v>
       </c>
       <c r="S44" t="n">
-        <v>197.689246680265</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="T44" t="n">
         <v>202.9604160683958</v>
@@ -30773,28 +30773,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>3.204244837724133</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.23671347604525</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.63964069051124</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30833,13 +30833,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>118.0748153454028</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>202.9604160683958</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>202.9604160683958</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30873,13 +30873,13 @@
         <v>160.2441078278826</v>
       </c>
       <c r="I46" t="n">
-        <v>152.8351322386632</v>
+        <v>148.7429310009042</v>
       </c>
       <c r="J46" t="n">
         <v>77.58996333455183</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>4.092201237758654</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M8" t="n">
         <v>15.30273751513505</v>
@@ -35185,10 +35185,10 @@
         <v>14.68444509028111</v>
       </c>
       <c r="O8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>15.30273751513505</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24.38892756098309</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>169.5844033430592</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>290.0518010239268</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2690258774244</v>
+        <v>282.24661635014</v>
       </c>
       <c r="N12" t="n">
         <v>379.1582113173974</v>
@@ -35507,7 +35507,7 @@
         <v>235.2914911319574</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.0560605926</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>134.9714213168648</v>
       </c>
       <c r="L13" t="n">
-        <v>192.0778434794815</v>
+        <v>60.75059762174164</v>
       </c>
       <c r="M13" t="n">
         <v>205.8742969193762</v>
@@ -35583,10 +35583,10 @@
         <v>187.4386412950426</v>
       </c>
       <c r="P13" t="n">
-        <v>84.27864705773237</v>
+        <v>151.7637897333543</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>63.84210318211803</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.25320897194615</v>
+        <v>30.25320897194575</v>
       </c>
       <c r="K14" t="n">
         <v>167.3061666485799</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>24.38892756098309</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>169.5844033430592</v>
       </c>
       <c r="L15" t="n">
         <v>290.0518010239268</v>
@@ -35735,13 +35735,13 @@
         <v>379.1582113173974</v>
       </c>
       <c r="N15" t="n">
-        <v>379.1582113173974</v>
+        <v>219.508715985455</v>
       </c>
       <c r="O15" t="n">
         <v>314.5652017565764</v>
       </c>
       <c r="P15" t="n">
-        <v>34.32383557210001</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>104.0560605926</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>53.73728252318806</v>
       </c>
       <c r="K16" t="n">
-        <v>134.9714213168649</v>
+        <v>134.9714213168648</v>
       </c>
       <c r="L16" t="n">
-        <v>192.0778434794816</v>
+        <v>192.0778434794815</v>
       </c>
       <c r="M16" t="n">
-        <v>205.8742969193763</v>
+        <v>74.54705106163634</v>
       </c>
       <c r="N16" t="n">
-        <v>209.5912462032077</v>
+        <v>205.7730626167656</v>
       </c>
       <c r="O16" t="n">
-        <v>169.8725975561653</v>
+        <v>187.4386412950426</v>
       </c>
       <c r="P16" t="n">
-        <v>155.5819733197965</v>
+        <v>155.5819733197964</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>63.84210318211803</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>260.3627682358878</v>
       </c>
       <c r="M17" t="n">
-        <v>306.4780345536438</v>
+        <v>306.478034553644</v>
       </c>
       <c r="N17" t="n">
         <v>296.6573740648208</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>34.32383557209984</v>
       </c>
       <c r="L18" t="n">
         <v>290.0518010239268</v>
@@ -35972,16 +35972,16 @@
         <v>379.1582113173974</v>
       </c>
       <c r="N18" t="n">
-        <v>282.2466163501399</v>
+        <v>379.1582113173974</v>
       </c>
       <c r="O18" t="n">
         <v>314.5652017565764</v>
       </c>
       <c r="P18" t="n">
-        <v>235.2914911319574</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>104.0560605926</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>24.38892756098309</v>
       </c>
       <c r="K21" t="n">
-        <v>169.5844033430592</v>
+        <v>64.69521790308623</v>
       </c>
       <c r="L21" t="n">
-        <v>290.0518010239268</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>379.1582113173974</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>379.1582113173974</v>
       </c>
       <c r="O21" t="n">
         <v>314.5652017565764</v>
@@ -36218,7 +36218,7 @@
         <v>235.2914911319574</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.27328544609759</v>
+        <v>104.0560605926</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>162.0692339700738</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.70546763518338</v>
+        <v>43.70546763518357</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>24.38892756098309</v>
       </c>
       <c r="K24" t="n">
-        <v>169.5844033430592</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>290.0518010239268</v>
       </c>
       <c r="M24" t="n">
-        <v>363.375436170895</v>
+        <v>379.1582113173974</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>379.1582113173974</v>
       </c>
       <c r="O24" t="n">
-        <v>314.5652017565764</v>
+        <v>89.20861863573579</v>
       </c>
       <c r="P24" t="n">
         <v>235.2914911319574</v>
@@ -36610,7 +36610,7 @@
         <v>384.7568031088315</v>
       </c>
       <c r="P26" t="n">
-        <v>312.344969579043</v>
+        <v>312.3449695790428</v>
       </c>
       <c r="Q26" t="n">
         <v>193.9812032441525</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.660262590756815</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.8417729624</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.854687586037926</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,28 +36747,28 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.532804608065025</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>10.48009661667433</v>
       </c>
       <c r="K28" t="n">
-        <v>153.9199110680941</v>
+        <v>3.644175459124956</v>
       </c>
       <c r="L28" t="n">
         <v>211.0263332307108</v>
       </c>
       <c r="M28" t="n">
-        <v>224.8227866706055</v>
+        <v>74.54705106163634</v>
       </c>
       <c r="N28" t="n">
-        <v>78.26400034546779</v>
+        <v>228.539735954437</v>
       </c>
       <c r="O28" t="n">
-        <v>56.11139543730272</v>
+        <v>206.3871310462719</v>
       </c>
       <c r="P28" t="n">
-        <v>46.62435182599071</v>
+        <v>24.25472746205654</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36969,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.660262590756759</v>
       </c>
       <c r="E31" t="n">
         <v>3.841772962399943</v>
@@ -36987,7 +36987,7 @@
         <v>1.532804608064968</v>
       </c>
       <c r="J31" t="n">
-        <v>72.68577227441729</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>3.644175459124956</v>
@@ -36996,16 +36996,16 @@
         <v>60.75059762174164</v>
       </c>
       <c r="M31" t="n">
-        <v>224.8227866706055</v>
+        <v>74.54705106163634</v>
       </c>
       <c r="N31" t="n">
-        <v>228.5397359544369</v>
+        <v>156.229239637765</v>
       </c>
       <c r="O31" t="n">
-        <v>56.11139543730272</v>
+        <v>206.3871310462718</v>
       </c>
       <c r="P31" t="n">
-        <v>31.19445707069302</v>
+        <v>174.5304630710257</v>
       </c>
       <c r="Q31" t="n">
         <v>82.79059293334726</v>
@@ -37075,7 +37075,7 @@
         <v>414.5976280947727</v>
       </c>
       <c r="M32" t="n">
-        <v>460.7128944125287</v>
+        <v>364.4881185276008</v>
       </c>
       <c r="N32" t="n">
         <v>450.8922339237057</v>
@@ -37087,10 +37087,10 @@
         <v>316.3040938289587</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.7155516091411</v>
+        <v>197.9403274940682</v>
       </c>
       <c r="R32" t="n">
-        <v>35.60040146212513</v>
+        <v>35.60040146212511</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,10 +37206,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>5.619386840672519</v>
+        <v>5.61938684067249</v>
       </c>
       <c r="E34" t="n">
-        <v>7.800897212315704</v>
+        <v>7.800897212315675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37227,16 +37227,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>106.4768767706601</v>
+        <v>3.644175459124956</v>
       </c>
       <c r="L34" t="n">
-        <v>60.75059762174164</v>
+        <v>214.9854574806265</v>
       </c>
       <c r="M34" t="n">
-        <v>74.54705106163634</v>
+        <v>177.379752373172</v>
       </c>
       <c r="N34" t="n">
-        <v>232.4988602043527</v>
+        <v>78.26400034546779</v>
       </c>
       <c r="O34" t="n">
         <v>56.11139543730272</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>11.65431476273179</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>233.2136250403416</v>
+        <v>30.25320897194575</v>
       </c>
       <c r="K35" t="n">
-        <v>370.2665827169758</v>
+        <v>167.3061666485799</v>
       </c>
       <c r="L35" t="n">
         <v>260.3627682358878</v>
       </c>
       <c r="M35" t="n">
-        <v>306.4780345536438</v>
+        <v>491.4930084772495</v>
       </c>
       <c r="N35" t="n">
         <v>296.6573740648208</v>
       </c>
       <c r="O35" t="n">
-        <v>234.4810674998623</v>
+        <v>437.4414835682581</v>
       </c>
       <c r="P35" t="n">
         <v>162.0692339700738</v>
       </c>
       <c r="Q35" t="n">
-        <v>70.93072969184225</v>
+        <v>43.70546763518338</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>56.82501896418088</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>4.092201237758824</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>78.26400034546779</v>
       </c>
       <c r="O37" t="n">
-        <v>56.11139543730272</v>
+        <v>60.20359667506154</v>
       </c>
       <c r="P37" t="n">
         <v>24.25472746205654</v>
@@ -37537,22 +37537,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>11.65431476273181</v>
       </c>
       <c r="J38" t="n">
         <v>30.25320897194575</v>
       </c>
       <c r="K38" t="n">
-        <v>370.2665827169758</v>
+        <v>167.3061666485799</v>
       </c>
       <c r="L38" t="n">
-        <v>299.2423450552786</v>
+        <v>260.3627682358878</v>
       </c>
       <c r="M38" t="n">
         <v>306.4780345536438</v>
       </c>
       <c r="N38" t="n">
-        <v>296.6573740648208</v>
+        <v>491.4930084772495</v>
       </c>
       <c r="O38" t="n">
         <v>234.4810674998623</v>
@@ -37564,7 +37564,7 @@
         <v>43.70546763518338</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>35.35004371262582</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>390.9810352184421</v>
       </c>
       <c r="N39" t="n">
-        <v>417.1948099086349</v>
+        <v>417.194809908635</v>
       </c>
       <c r="O39" t="n">
         <v>314.5652017565764</v>
@@ -37692,13 +37692,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>4.092201237758824</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>4.092201237758652</v>
       </c>
       <c r="K40" t="n">
         <v>3.644175459124956</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>233.2136250403415</v>
+        <v>30.25320897194575</v>
       </c>
       <c r="K41" t="n">
         <v>167.3061666485799</v>
       </c>
       <c r="L41" t="n">
-        <v>260.3627682358878</v>
+        <v>299.2423450552787</v>
       </c>
       <c r="M41" t="n">
         <v>306.4780345536438</v>
       </c>
       <c r="N41" t="n">
-        <v>335.5369508842116</v>
+        <v>296.6573740648208</v>
       </c>
       <c r="O41" t="n">
         <v>437.4414835682581</v>
@@ -37798,7 +37798,7 @@
         <v>162.0692339700738</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.70546763518338</v>
+        <v>246.6658837035791</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>314.5652017565764</v>
       </c>
       <c r="P42" t="n">
-        <v>235.2914911319574</v>
+        <v>235.2914911319575</v>
       </c>
       <c r="Q42" t="n">
         <v>104.0560605926</v>
@@ -37914,7 +37914,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>4.092201237759112</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>78.26400034546779</v>
       </c>
       <c r="O43" t="n">
-        <v>56.11139543730272</v>
+        <v>60.20359667506183</v>
       </c>
       <c r="P43" t="n">
         <v>24.25472746205654</v>
@@ -38020,28 +38020,28 @@
         <v>167.3061666485799</v>
       </c>
       <c r="L44" t="n">
-        <v>325.3125688560359</v>
+        <v>260.3627682358878</v>
       </c>
       <c r="M44" t="n">
         <v>491.4930084772495</v>
       </c>
       <c r="N44" t="n">
-        <v>491.4930084772495</v>
+        <v>296.6573740648208</v>
       </c>
       <c r="O44" t="n">
-        <v>234.4810674998623</v>
+        <v>286.0349170759124</v>
       </c>
       <c r="P44" t="n">
         <v>162.0692339700738</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.70546763518338</v>
+        <v>246.6658837035792</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>5.271169388130801</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.38892756098304</v>
+        <v>24.38892756098309</v>
       </c>
       <c r="K45" t="n">
         <v>169.5844033430592</v>
@@ -38169,13 +38169,13 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>4.092201237759112</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.644175459124956</v>
+        <v>7.736376696883609</v>
       </c>
       <c r="L46" t="n">
         <v>60.75059762174164</v>
